--- a/sprint10/dades_GrupA.xlsx
+++ b/sprint10/dades_GrupA.xlsx
@@ -575,7 +575,7 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>1.253</v>
+        <v>1253</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
@@ -616,7 +616,7 @@
         <v>0.05</v>
       </c>
       <c r="T2" t="n">
-        <v>1.31565</v>
+        <v>1315.65</v>
       </c>
     </row>
     <row r="3">
@@ -655,7 +655,7 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>1.441</v>
+        <v>1441</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
@@ -696,7 +696,7 @@
         <v>0.05</v>
       </c>
       <c r="T3" t="n">
-        <v>1.51305</v>
+        <v>1513.05</v>
       </c>
     </row>
     <row r="4">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>1.043</v>
+        <v>1043</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="n">
@@ -776,7 +776,7 @@
         <v>0.05</v>
       </c>
       <c r="T4" t="n">
-        <v>1.09515</v>
+        <v>1095.15</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>1.494</v>
+        <v>1494</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
@@ -925,7 +925,7 @@
         <v>37563</v>
       </c>
       <c r="Q6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         <v>0.05</v>
       </c>
       <c r="T6" t="n">
-        <v>1.5687</v>
+        <v>1568.7</v>
       </c>
     </row>
     <row r="7">
@@ -975,7 +975,7 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>1.366</v>
+        <v>1366</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
@@ -1016,7 +1016,7 @@
         <v>0.05</v>
       </c>
       <c r="T7" t="n">
-        <v>1.4343</v>
+        <v>1434.3</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>1.25</v>
+        <v>1250</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
@@ -1176,7 +1176,7 @@
         <v>0.05</v>
       </c>
       <c r="T9" t="n">
-        <v>1.3125</v>
+        <v>1312.5</v>
       </c>
     </row>
     <row r="10">
@@ -1215,7 +1215,7 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>1.593</v>
+        <v>1593</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -1256,7 +1256,7 @@
         <v>0.05</v>
       </c>
       <c r="T10" t="n">
-        <v>1.67265</v>
+        <v>1672.65</v>
       </c>
     </row>
     <row r="11">
@@ -1295,7 +1295,7 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>1.247</v>
+        <v>1247</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
@@ -1336,7 +1336,7 @@
         <v>0.05</v>
       </c>
       <c r="T11" t="n">
-        <v>1.30935</v>
+        <v>1309.35</v>
       </c>
     </row>
     <row r="12">
@@ -1375,7 +1375,7 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>1.17</v>
+        <v>1170</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
@@ -1416,7 +1416,7 @@
         <v>0.05</v>
       </c>
       <c r="T12" t="n">
-        <v>1.2285</v>
+        <v>1228.5</v>
       </c>
     </row>
     <row r="13">
@@ -1455,7 +1455,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>1.344</v>
+        <v>1344</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
@@ -1496,7 +1496,7 @@
         <v>0.05</v>
       </c>
       <c r="T13" t="n">
-        <v>1.4112</v>
+        <v>1411.2</v>
       </c>
     </row>
     <row r="14">
@@ -1695,7 +1695,7 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>1.019</v>
+        <v>1019</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
@@ -1736,7 +1736,7 @@
         <v>0.05</v>
       </c>
       <c r="T16" t="n">
-        <v>1.06995</v>
+        <v>1069.95</v>
       </c>
     </row>
     <row r="17">
@@ -1775,7 +1775,7 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>1.256</v>
+        <v>1256</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="n">
@@ -1816,7 +1816,7 @@
         <v>0.05</v>
       </c>
       <c r="T17" t="n">
-        <v>1.3188</v>
+        <v>1318.8</v>
       </c>
     </row>
     <row r="18">
@@ -1855,7 +1855,7 @@
         </is>
       </c>
       <c r="I18" t="n">
-        <v>1.313</v>
+        <v>1313</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
@@ -1896,7 +1896,7 @@
         <v>0.05</v>
       </c>
       <c r="T18" t="n">
-        <v>1.37865</v>
+        <v>1378.65</v>
       </c>
     </row>
     <row r="19">
@@ -2335,7 +2335,7 @@
         </is>
       </c>
       <c r="I24" t="n">
-        <v>1.515</v>
+        <v>1515</v>
       </c>
       <c r="J24" t="n">
         <v>1</v>
@@ -2376,7 +2376,7 @@
         <v>0.05</v>
       </c>
       <c r="T24" t="n">
-        <v>1.59075</v>
+        <v>1590.75</v>
       </c>
     </row>
     <row r="25">
@@ -2415,7 +2415,7 @@
         </is>
       </c>
       <c r="I25" t="n">
-        <v>1.381</v>
+        <v>1381</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
@@ -2456,7 +2456,7 @@
         <v>0.05</v>
       </c>
       <c r="T25" t="n">
-        <v>1.45005</v>
+        <v>1450.05</v>
       </c>
     </row>
     <row r="26">
@@ -2495,7 +2495,7 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>1.484</v>
+        <v>1484</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
@@ -2536,7 +2536,7 @@
         <v>0.05</v>
       </c>
       <c r="T26" t="n">
-        <v>1.5582</v>
+        <v>1558.2</v>
       </c>
     </row>
     <row r="27">
@@ -2655,7 +2655,7 @@
         </is>
       </c>
       <c r="I28" t="n">
-        <v>1.001</v>
+        <v>1001</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
@@ -2696,7 +2696,7 @@
         <v>0.05</v>
       </c>
       <c r="T28" t="n">
-        <v>1.05105</v>
+        <v>1051.05</v>
       </c>
     </row>
     <row r="29">
@@ -2735,7 +2735,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>1.502</v>
+        <v>1502</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
@@ -2776,7 +2776,7 @@
         <v>0.05</v>
       </c>
       <c r="T29" t="n">
-        <v>1.5771</v>
+        <v>1577.1</v>
       </c>
     </row>
     <row r="30">
@@ -2815,7 +2815,7 @@
         </is>
       </c>
       <c r="I30" t="n">
-        <v>1.288</v>
+        <v>1288</v>
       </c>
       <c r="J30" t="n">
         <v>1</v>
@@ -2856,7 +2856,7 @@
         <v>0.05</v>
       </c>
       <c r="T30" t="n">
-        <v>1.3524</v>
+        <v>1352.4</v>
       </c>
     </row>
     <row r="31">
@@ -2895,7 +2895,7 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>1.243</v>
+        <v>1243</v>
       </c>
       <c r="J31" t="n">
         <v>1</v>
@@ -2936,7 +2936,7 @@
         <v>0.05</v>
       </c>
       <c r="T31" t="n">
-        <v>1.30515</v>
+        <v>1305.15</v>
       </c>
     </row>
     <row r="32">
@@ -2975,7 +2975,7 @@
         </is>
       </c>
       <c r="I32" t="n">
-        <v>1.531</v>
+        <v>1531</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
@@ -3016,7 +3016,7 @@
         <v>0.05</v>
       </c>
       <c r="T32" t="n">
-        <v>1.60755</v>
+        <v>1607.55</v>
       </c>
     </row>
     <row r="33">
@@ -3055,7 +3055,7 @@
         </is>
       </c>
       <c r="I33" t="n">
-        <v>1.405</v>
+        <v>1405</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
@@ -3096,7 +3096,7 @@
         <v>0.05</v>
       </c>
       <c r="T33" t="n">
-        <v>1.47525</v>
+        <v>1475.25</v>
       </c>
     </row>
     <row r="34">
@@ -3135,7 +3135,7 @@
         </is>
       </c>
       <c r="I34" t="n">
-        <v>1.252</v>
+        <v>1252</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
@@ -3176,7 +3176,7 @@
         <v>0.05</v>
       </c>
       <c r="T34" t="n">
-        <v>1.3146</v>
+        <v>1314.6</v>
       </c>
     </row>
     <row r="35">
@@ -3215,7 +3215,7 @@
         </is>
       </c>
       <c r="I35" t="n">
-        <v>1.667</v>
+        <v>1667</v>
       </c>
       <c r="J35" t="n">
         <v>1</v>
@@ -3256,7 +3256,7 @@
         <v>0.05</v>
       </c>
       <c r="T35" t="n">
-        <v>1.75035</v>
+        <v>1750.35</v>
       </c>
     </row>
     <row r="36">
@@ -3295,7 +3295,7 @@
         </is>
       </c>
       <c r="I36" t="n">
-        <v>1.333</v>
+        <v>1333</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
@@ -3336,7 +3336,7 @@
         <v>0.05</v>
       </c>
       <c r="T36" t="n">
-        <v>1.39965</v>
+        <v>1399.65</v>
       </c>
     </row>
     <row r="37">
@@ -3455,7 +3455,7 @@
         </is>
       </c>
       <c r="I38" t="n">
-        <v>1.323</v>
+        <v>1323</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
@@ -3496,7 +3496,7 @@
         <v>0.05</v>
       </c>
       <c r="T38" t="n">
-        <v>1.38915</v>
+        <v>1389.15</v>
       </c>
     </row>
     <row r="39">
@@ -3615,7 +3615,7 @@
         </is>
       </c>
       <c r="I40" t="n">
-        <v>1.064</v>
+        <v>1064</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
@@ -3656,7 +3656,7 @@
         <v>0.05</v>
       </c>
       <c r="T40" t="n">
-        <v>1.1172</v>
+        <v>1117.2</v>
       </c>
     </row>
     <row r="41">
@@ -3695,7 +3695,7 @@
         </is>
       </c>
       <c r="I41" t="n">
-        <v>1.116</v>
+        <v>1116</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
@@ -3736,7 +3736,7 @@
         <v>0.05</v>
       </c>
       <c r="T41" t="n">
-        <v>1.1718</v>
+        <v>1171.8</v>
       </c>
     </row>
     <row r="42">
@@ -3775,7 +3775,7 @@
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1.167</v>
+        <v>1167</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
@@ -3816,7 +3816,7 @@
         <v>0.05</v>
       </c>
       <c r="T42" t="n">
-        <v>1.22535</v>
+        <v>1225.35</v>
       </c>
     </row>
     <row r="43">
@@ -4095,7 +4095,7 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>1.469</v>
+        <v>1469</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
@@ -4136,7 +4136,7 @@
         <v>0.05</v>
       </c>
       <c r="T46" t="n">
-        <v>1.54245</v>
+        <v>1542.45</v>
       </c>
     </row>
     <row r="47">
@@ -4175,7 +4175,7 @@
         </is>
       </c>
       <c r="I47" t="n">
-        <v>1.496</v>
+        <v>1496</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
@@ -4216,7 +4216,7 @@
         <v>0.05</v>
       </c>
       <c r="T47" t="n">
-        <v>1.5708</v>
+        <v>1570.8</v>
       </c>
     </row>
     <row r="48">
@@ -4255,7 +4255,7 @@
         </is>
       </c>
       <c r="I48" t="n">
-        <v>1.381</v>
+        <v>1381</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
@@ -4296,7 +4296,7 @@
         <v>0.05</v>
       </c>
       <c r="T48" t="n">
-        <v>1.45005</v>
+        <v>1450.05</v>
       </c>
     </row>
     <row r="49">
@@ -4335,7 +4335,7 @@
         </is>
       </c>
       <c r="I49" t="n">
-        <v>1.543</v>
+        <v>1543</v>
       </c>
       <c r="J49" t="n">
         <v>1</v>
@@ -4376,7 +4376,7 @@
         <v>0.05</v>
       </c>
       <c r="T49" t="n">
-        <v>1.62015</v>
+        <v>1620.15</v>
       </c>
     </row>
     <row r="50">
@@ -4415,7 +4415,7 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>1.438</v>
+        <v>1438</v>
       </c>
       <c r="J50" t="n">
         <v>1</v>
@@ -4456,7 +4456,7 @@
         <v>0.05</v>
       </c>
       <c r="T50" t="n">
-        <v>1.5099</v>
+        <v>1509.9</v>
       </c>
     </row>
     <row r="51">
@@ -4495,7 +4495,7 @@
         </is>
       </c>
       <c r="I51" t="n">
-        <v>1.246</v>
+        <v>1246</v>
       </c>
       <c r="J51" t="n">
         <v>1</v>
@@ -4536,7 +4536,7 @@
         <v>0.05</v>
       </c>
       <c r="T51" t="n">
-        <v>1.3083</v>
+        <v>1308.3</v>
       </c>
     </row>
     <row r="52">
@@ -4575,7 +4575,7 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>1.077</v>
+        <v>1077</v>
       </c>
       <c r="J52" t="n">
         <v>1</v>
@@ -4616,7 +4616,7 @@
         <v>0.05</v>
       </c>
       <c r="T52" t="n">
-        <v>1.13085</v>
+        <v>1130.85</v>
       </c>
     </row>
     <row r="53">
@@ -4655,7 +4655,7 @@
         </is>
       </c>
       <c r="I53" t="n">
-        <v>1.24</v>
+        <v>1240</v>
       </c>
       <c r="J53" t="n">
         <v>1</v>
@@ -4696,7 +4696,7 @@
         <v>0.05</v>
       </c>
       <c r="T53" t="n">
-        <v>1.302</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="54">
@@ -4815,7 +4815,7 @@
         </is>
       </c>
       <c r="I55" t="n">
-        <v>1.154</v>
+        <v>1154</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
@@ -4856,7 +4856,7 @@
         <v>0.05</v>
       </c>
       <c r="T55" t="n">
-        <v>1.2117</v>
+        <v>1211.7</v>
       </c>
     </row>
     <row r="56">
@@ -4895,7 +4895,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>1.377</v>
+        <v>1377</v>
       </c>
       <c r="J56" t="n">
         <v>1</v>
@@ -4936,7 +4936,7 @@
         <v>0.05</v>
       </c>
       <c r="T56" t="n">
-        <v>1.44585</v>
+        <v>1445.85</v>
       </c>
     </row>
     <row r="57">
@@ -4975,7 +4975,7 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>1.396</v>
+        <v>1396</v>
       </c>
       <c r="J57" t="n">
         <v>1</v>
@@ -5016,7 +5016,7 @@
         <v>0.05</v>
       </c>
       <c r="T57" t="n">
-        <v>1.4658</v>
+        <v>1465.8</v>
       </c>
     </row>
     <row r="58">
@@ -5055,7 +5055,7 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>1.672</v>
+        <v>1672</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
@@ -5096,7 +5096,7 @@
         <v>0.05</v>
       </c>
       <c r="T58" t="n">
-        <v>1.7556</v>
+        <v>1755.6</v>
       </c>
     </row>
     <row r="59">
@@ -5135,7 +5135,7 @@
         </is>
       </c>
       <c r="I59" t="n">
-        <v>1.563</v>
+        <v>1563</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
@@ -5176,7 +5176,7 @@
         <v>0.05</v>
       </c>
       <c r="T59" t="n">
-        <v>1.64115</v>
+        <v>1641.15</v>
       </c>
     </row>
     <row r="60">
@@ -5215,7 +5215,7 @@
         </is>
       </c>
       <c r="I60" t="n">
-        <v>1.156</v>
+        <v>1156</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
@@ -5256,7 +5256,7 @@
         <v>0.05</v>
       </c>
       <c r="T60" t="n">
-        <v>1.2138</v>
+        <v>1213.8</v>
       </c>
     </row>
     <row r="61">
@@ -5295,7 +5295,7 @@
         </is>
       </c>
       <c r="I61" t="n">
-        <v>1.341</v>
+        <v>1341</v>
       </c>
       <c r="J61" t="n">
         <v>1</v>
@@ -5336,7 +5336,7 @@
         <v>0.05</v>
       </c>
       <c r="T61" t="n">
-        <v>1.40805</v>
+        <v>1408.05</v>
       </c>
     </row>
     <row r="62">
@@ -5375,7 +5375,7 @@
         </is>
       </c>
       <c r="I62" t="n">
-        <v>1.072</v>
+        <v>1072</v>
       </c>
       <c r="J62" t="n">
         <v>1</v>
@@ -5416,7 +5416,7 @@
         <v>0.05</v>
       </c>
       <c r="T62" t="n">
-        <v>1.1256</v>
+        <v>1125.6</v>
       </c>
     </row>
     <row r="63">
@@ -5455,7 +5455,7 @@
         </is>
       </c>
       <c r="I63" t="n">
-        <v>1.1</v>
+        <v>1100</v>
       </c>
       <c r="J63" t="n">
         <v>1</v>
@@ -5496,7 +5496,7 @@
         <v>0.05</v>
       </c>
       <c r="T63" t="n">
-        <v>1.155</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="64">
@@ -5535,7 +5535,7 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>1.505</v>
+        <v>1505</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
@@ -5576,7 +5576,7 @@
         <v>0.05</v>
       </c>
       <c r="T64" t="n">
-        <v>1.58025</v>
+        <v>1580.25</v>
       </c>
     </row>
     <row r="65">
@@ -5615,7 +5615,7 @@
         </is>
       </c>
       <c r="I65" t="n">
-        <v>1.28</v>
+        <v>1280</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
@@ -5656,7 +5656,7 @@
         <v>0.05</v>
       </c>
       <c r="T65" t="n">
-        <v>1.344</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="66">
@@ -5775,7 +5775,7 @@
         </is>
       </c>
       <c r="I67" t="n">
-        <v>1.538</v>
+        <v>1538</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
@@ -5816,7 +5816,7 @@
         <v>0.05</v>
       </c>
       <c r="T67" t="n">
-        <v>1.6149</v>
+        <v>1614.9</v>
       </c>
     </row>
     <row r="68">
@@ -5855,7 +5855,7 @@
         </is>
       </c>
       <c r="I68" t="n">
-        <v>1.431</v>
+        <v>1431</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
@@ -5896,7 +5896,7 @@
         <v>0.05</v>
       </c>
       <c r="T68" t="n">
-        <v>1.50255</v>
+        <v>1502.55</v>
       </c>
     </row>
     <row r="69">
@@ -5935,7 +5935,7 @@
         </is>
       </c>
       <c r="I69" t="n">
-        <v>1.193</v>
+        <v>1193</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
@@ -5976,7 +5976,7 @@
         <v>0.05</v>
       </c>
       <c r="T69" t="n">
-        <v>1.25265</v>
+        <v>1252.65</v>
       </c>
     </row>
     <row r="70">
@@ -6175,7 +6175,7 @@
         </is>
       </c>
       <c r="I72" t="n">
-        <v>1.558</v>
+        <v>1558</v>
       </c>
       <c r="J72" t="n">
         <v>1</v>
@@ -6216,7 +6216,7 @@
         <v>0.05</v>
       </c>
       <c r="T72" t="n">
-        <v>1.6359</v>
+        <v>1635.9</v>
       </c>
     </row>
     <row r="73">
@@ -6255,7 +6255,7 @@
         </is>
       </c>
       <c r="I73" t="n">
-        <v>1.552</v>
+        <v>1552</v>
       </c>
       <c r="J73" t="n">
         <v>1</v>
@@ -6296,7 +6296,7 @@
         <v>0.05</v>
       </c>
       <c r="T73" t="n">
-        <v>1.6296</v>
+        <v>1629.6</v>
       </c>
     </row>
     <row r="74">
@@ -6335,7 +6335,7 @@
         </is>
       </c>
       <c r="I74" t="n">
-        <v>1.044</v>
+        <v>1044</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
@@ -6376,7 +6376,7 @@
         <v>0.05</v>
       </c>
       <c r="T74" t="n">
-        <v>1.0962</v>
+        <v>1096.2</v>
       </c>
     </row>
     <row r="75">
@@ -6415,7 +6415,7 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>1.156</v>
+        <v>1156</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
@@ -6456,7 +6456,7 @@
         <v>0.05</v>
       </c>
       <c r="T75" t="n">
-        <v>1.2138</v>
+        <v>1213.8</v>
       </c>
     </row>
     <row r="76">
@@ -6495,7 +6495,7 @@
         </is>
       </c>
       <c r="I76" t="n">
-        <v>1.126</v>
+        <v>1126</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
@@ -6536,7 +6536,7 @@
         <v>0.05</v>
       </c>
       <c r="T76" t="n">
-        <v>1.1823</v>
+        <v>1182.3</v>
       </c>
     </row>
     <row r="77">
@@ -6575,7 +6575,7 @@
         </is>
       </c>
       <c r="I77" t="n">
-        <v>1.219</v>
+        <v>1219</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
@@ -6616,7 +6616,7 @@
         <v>0.05</v>
       </c>
       <c r="T77" t="n">
-        <v>1.27995</v>
+        <v>1279.95</v>
       </c>
     </row>
     <row r="78">
@@ -6655,7 +6655,7 @@
         </is>
       </c>
       <c r="I78" t="n">
-        <v>1.471</v>
+        <v>1471</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
@@ -6696,7 +6696,7 @@
         <v>0.05</v>
       </c>
       <c r="T78" t="n">
-        <v>1.54455</v>
+        <v>1544.55</v>
       </c>
     </row>
     <row r="79">
@@ -6735,7 +6735,7 @@
         </is>
       </c>
       <c r="I79" t="n">
-        <v>1.562</v>
+        <v>1562</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
@@ -6776,7 +6776,7 @@
         <v>0.05</v>
       </c>
       <c r="T79" t="n">
-        <v>1.6401</v>
+        <v>1640.1</v>
       </c>
     </row>
     <row r="80">
@@ -6815,7 +6815,7 @@
         </is>
       </c>
       <c r="I80" t="n">
-        <v>1.105</v>
+        <v>1105</v>
       </c>
       <c r="J80" t="n">
         <v>1</v>
@@ -6856,7 +6856,7 @@
         <v>0.05</v>
       </c>
       <c r="T80" t="n">
-        <v>1.16025</v>
+        <v>1160.25</v>
       </c>
     </row>
     <row r="81">
@@ -6975,7 +6975,7 @@
         </is>
       </c>
       <c r="I82" t="n">
-        <v>1.659</v>
+        <v>1659</v>
       </c>
       <c r="J82" t="n">
         <v>1</v>
@@ -7016,7 +7016,7 @@
         <v>0.05</v>
       </c>
       <c r="T82" t="n">
-        <v>1.74195</v>
+        <v>1741.95</v>
       </c>
     </row>
     <row r="83">
@@ -7055,7 +7055,7 @@
         </is>
       </c>
       <c r="I83" t="n">
-        <v>1.464</v>
+        <v>1464</v>
       </c>
       <c r="J83" t="n">
         <v>1</v>
@@ -7096,7 +7096,7 @@
         <v>0.05</v>
       </c>
       <c r="T83" t="n">
-        <v>1.5372</v>
+        <v>1537.2</v>
       </c>
     </row>
     <row r="84">
@@ -7215,7 +7215,7 @@
         </is>
       </c>
       <c r="I85" t="n">
-        <v>1.294</v>
+        <v>1294</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
@@ -7256,7 +7256,7 @@
         <v>0.05</v>
       </c>
       <c r="T85" t="n">
-        <v>1.3587</v>
+        <v>1358.7</v>
       </c>
     </row>
     <row r="86">
@@ -7455,7 +7455,7 @@
         </is>
       </c>
       <c r="I88" t="n">
-        <v>1.141</v>
+        <v>1141</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
@@ -7496,7 +7496,7 @@
         <v>0.05</v>
       </c>
       <c r="T88" t="n">
-        <v>1.19805</v>
+        <v>1198.05</v>
       </c>
     </row>
     <row r="89">
@@ -7535,7 +7535,7 @@
         </is>
       </c>
       <c r="I89" t="n">
-        <v>1.027</v>
+        <v>1027</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
@@ -7576,7 +7576,7 @@
         <v>0.05</v>
       </c>
       <c r="T89" t="n">
-        <v>1.07835</v>
+        <v>1078.35</v>
       </c>
     </row>
     <row r="90">
@@ -7615,7 +7615,7 @@
         </is>
       </c>
       <c r="I90" t="n">
-        <v>1.377</v>
+        <v>1377</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
@@ -7656,7 +7656,7 @@
         <v>0.05</v>
       </c>
       <c r="T90" t="n">
-        <v>1.44585</v>
+        <v>1445.85</v>
       </c>
     </row>
     <row r="91">
@@ -7695,7 +7695,7 @@
         </is>
       </c>
       <c r="I91" t="n">
-        <v>1.199</v>
+        <v>1199</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
@@ -7736,7 +7736,7 @@
         <v>0.05</v>
       </c>
       <c r="T91" t="n">
-        <v>1.25895</v>
+        <v>1258.95</v>
       </c>
     </row>
     <row r="92">
@@ -7775,7 +7775,7 @@
         </is>
       </c>
       <c r="I92" t="n">
-        <v>1.28</v>
+        <v>1280</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
@@ -7816,7 +7816,7 @@
         <v>0.05</v>
       </c>
       <c r="T92" t="n">
-        <v>1.344</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="93">
@@ -7855,7 +7855,7 @@
         </is>
       </c>
       <c r="I93" t="n">
-        <v>1.212</v>
+        <v>1212</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
@@ -7896,7 +7896,7 @@
         <v>0.05</v>
       </c>
       <c r="T93" t="n">
-        <v>1.2726</v>
+        <v>1272.6</v>
       </c>
     </row>
     <row r="94">
@@ -7935,7 +7935,7 @@
         </is>
       </c>
       <c r="I94" t="n">
-        <v>1.079</v>
+        <v>1079</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
@@ -7976,7 +7976,7 @@
         <v>0.05</v>
       </c>
       <c r="T94" t="n">
-        <v>1.13295</v>
+        <v>1132.95</v>
       </c>
     </row>
     <row r="95">
@@ -8015,7 +8015,7 @@
         </is>
       </c>
       <c r="I95" t="n">
-        <v>1.664</v>
+        <v>1664</v>
       </c>
       <c r="J95" t="n">
         <v>1</v>
@@ -8056,7 +8056,7 @@
         <v>0.05</v>
       </c>
       <c r="T95" t="n">
-        <v>1.7472</v>
+        <v>1747.2</v>
       </c>
     </row>
     <row r="96">
@@ -8095,7 +8095,7 @@
         </is>
       </c>
       <c r="I96" t="n">
-        <v>1.122</v>
+        <v>1122</v>
       </c>
       <c r="J96" t="n">
         <v>1</v>
@@ -8136,7 +8136,7 @@
         <v>0.05</v>
       </c>
       <c r="T96" t="n">
-        <v>1.1781</v>
+        <v>1178.1</v>
       </c>
     </row>
     <row r="97">
@@ -8175,7 +8175,7 @@
         </is>
       </c>
       <c r="I97" t="n">
-        <v>1.159</v>
+        <v>1159</v>
       </c>
       <c r="J97" t="n">
         <v>1</v>
@@ -8216,7 +8216,7 @@
         <v>0.05</v>
       </c>
       <c r="T97" t="n">
-        <v>1.21695</v>
+        <v>1216.95</v>
       </c>
     </row>
     <row r="98">
@@ -8335,7 +8335,7 @@
         </is>
       </c>
       <c r="I99" t="n">
-        <v>1.376</v>
+        <v>1376</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
@@ -8376,7 +8376,7 @@
         <v>0.05</v>
       </c>
       <c r="T99" t="n">
-        <v>1.4448</v>
+        <v>1444.8</v>
       </c>
     </row>
     <row r="100">
@@ -8415,7 +8415,7 @@
         </is>
       </c>
       <c r="I100" t="n">
-        <v>1.033</v>
+        <v>1033</v>
       </c>
       <c r="J100" t="n">
         <v>1</v>
@@ -8456,7 +8456,7 @@
         <v>0.05</v>
       </c>
       <c r="T100" t="n">
-        <v>1.08465</v>
+        <v>1084.65</v>
       </c>
     </row>
     <row r="101">
@@ -8495,7 +8495,7 @@
         </is>
       </c>
       <c r="I101" t="n">
-        <v>1.495</v>
+        <v>1495</v>
       </c>
       <c r="J101" t="n">
         <v>1</v>
@@ -8536,7 +8536,7 @@
         <v>0.05</v>
       </c>
       <c r="T101" t="n">
-        <v>1.56975</v>
+        <v>1569.75</v>
       </c>
     </row>
     <row r="102">
@@ -8655,7 +8655,7 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>1.306</v>
+        <v>1306</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
@@ -8696,7 +8696,7 @@
         <v>0.05</v>
       </c>
       <c r="T103" t="n">
-        <v>1.3713</v>
+        <v>1371.3</v>
       </c>
     </row>
     <row r="104">
@@ -8735,7 +8735,7 @@
         </is>
       </c>
       <c r="I104" t="n">
-        <v>1.372</v>
+        <v>1372</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
@@ -8776,7 +8776,7 @@
         <v>0.05</v>
       </c>
       <c r="T104" t="n">
-        <v>1.4406</v>
+        <v>1440.6</v>
       </c>
     </row>
     <row r="105">
@@ -9375,7 +9375,7 @@
         </is>
       </c>
       <c r="I112" t="n">
-        <v>1.036</v>
+        <v>1036</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
@@ -9416,7 +9416,7 @@
         <v>0.05</v>
       </c>
       <c r="T112" t="n">
-        <v>1.0878</v>
+        <v>1087.8</v>
       </c>
     </row>
     <row r="113">
@@ -9455,7 +9455,7 @@
         </is>
       </c>
       <c r="I113" t="n">
-        <v>1.095</v>
+        <v>1095</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
@@ -9496,7 +9496,7 @@
         <v>0.05</v>
       </c>
       <c r="T113" t="n">
-        <v>1.14975</v>
+        <v>1149.75</v>
       </c>
     </row>
     <row r="114">
@@ -9535,7 +9535,7 @@
         </is>
       </c>
       <c r="I114" t="n">
-        <v>1.239</v>
+        <v>1239</v>
       </c>
       <c r="J114" t="n">
         <v>1</v>
@@ -9576,7 +9576,7 @@
         <v>0.05</v>
       </c>
       <c r="T114" t="n">
-        <v>1.30095</v>
+        <v>1300.95</v>
       </c>
     </row>
     <row r="115">
@@ -9695,7 +9695,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>1.303</v>
+        <v>1303</v>
       </c>
       <c r="J116" t="n">
         <v>1</v>
@@ -9736,7 +9736,7 @@
         <v>0.05</v>
       </c>
       <c r="T116" t="n">
-        <v>1.36815</v>
+        <v>1368.15</v>
       </c>
     </row>
     <row r="117">
@@ -9855,7 +9855,7 @@
         </is>
       </c>
       <c r="I118" t="n">
-        <v>1.491</v>
+        <v>1491</v>
       </c>
       <c r="J118" t="n">
         <v>1</v>
@@ -9896,7 +9896,7 @@
         <v>0.05</v>
       </c>
       <c r="T118" t="n">
-        <v>1.56555</v>
+        <v>1565.55</v>
       </c>
     </row>
     <row r="119">
@@ -9935,7 +9935,7 @@
         </is>
       </c>
       <c r="I119" t="n">
-        <v>1.12</v>
+        <v>1120</v>
       </c>
       <c r="J119" t="n">
         <v>1</v>
@@ -9976,7 +9976,7 @@
         <v>0.05</v>
       </c>
       <c r="T119" t="n">
-        <v>1.176</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="120">
@@ -10095,7 +10095,7 @@
         </is>
       </c>
       <c r="I121" t="n">
-        <v>1.506</v>
+        <v>1506</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
@@ -10136,7 +10136,7 @@
         <v>0.05</v>
       </c>
       <c r="T121" t="n">
-        <v>1.5813</v>
+        <v>1581.3</v>
       </c>
     </row>
     <row r="122">
@@ -10175,7 +10175,7 @@
         </is>
       </c>
       <c r="I122" t="n">
-        <v>1.249</v>
+        <v>1249</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
@@ -10216,7 +10216,7 @@
         <v>0.05</v>
       </c>
       <c r="T122" t="n">
-        <v>1.31145</v>
+        <v>1311.45</v>
       </c>
     </row>
     <row r="123">
@@ -10335,7 +10335,7 @@
         </is>
       </c>
       <c r="I124" t="n">
-        <v>1.354</v>
+        <v>1354</v>
       </c>
       <c r="J124" t="n">
         <v>1</v>
@@ -10376,7 +10376,7 @@
         <v>0.05</v>
       </c>
       <c r="T124" t="n">
-        <v>1.4217</v>
+        <v>1421.7</v>
       </c>
     </row>
     <row r="125">
@@ -10495,7 +10495,7 @@
         </is>
       </c>
       <c r="I126" t="n">
-        <v>1.047</v>
+        <v>1047</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
@@ -10536,7 +10536,7 @@
         <v>0.05</v>
       </c>
       <c r="T126" t="n">
-        <v>1.09935</v>
+        <v>1099.35</v>
       </c>
     </row>
     <row r="127">
@@ -10575,7 +10575,7 @@
         </is>
       </c>
       <c r="I127" t="n">
-        <v>1.188</v>
+        <v>1188</v>
       </c>
       <c r="J127" t="n">
         <v>1</v>
@@ -10616,7 +10616,7 @@
         <v>0.05</v>
       </c>
       <c r="T127" t="n">
-        <v>1.2474</v>
+        <v>1247.4</v>
       </c>
     </row>
     <row r="128">
@@ -10895,7 +10895,7 @@
         </is>
       </c>
       <c r="I131" t="n">
-        <v>1.064</v>
+        <v>1064</v>
       </c>
       <c r="J131" t="n">
         <v>1</v>
@@ -10936,7 +10936,7 @@
         <v>0.05</v>
       </c>
       <c r="T131" t="n">
-        <v>1.1172</v>
+        <v>1117.2</v>
       </c>
     </row>
     <row r="132">
@@ -11135,7 +11135,7 @@
         </is>
       </c>
       <c r="I134" t="n">
-        <v>1.319</v>
+        <v>1319</v>
       </c>
       <c r="J134" t="n">
         <v>1</v>
@@ -11176,7 +11176,7 @@
         <v>0.05</v>
       </c>
       <c r="T134" t="n">
-        <v>1.38495</v>
+        <v>1384.95</v>
       </c>
     </row>
     <row r="135">
@@ -11215,7 +11215,7 @@
         </is>
       </c>
       <c r="I135" t="n">
-        <v>1.289</v>
+        <v>1289</v>
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="n">
@@ -11256,7 +11256,7 @@
         <v>0.05</v>
       </c>
       <c r="T135" t="n">
-        <v>1.35345</v>
+        <v>1353.45</v>
       </c>
     </row>
     <row r="136">
@@ -11295,7 +11295,7 @@
         </is>
       </c>
       <c r="I136" t="n">
-        <v>1.019</v>
+        <v>1019</v>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="n">
@@ -11336,7 +11336,7 @@
         <v>0.05</v>
       </c>
       <c r="T136" t="n">
-        <v>1.06995</v>
+        <v>1069.95</v>
       </c>
     </row>
     <row r="137">
@@ -11535,7 +11535,7 @@
         </is>
       </c>
       <c r="I139" t="n">
-        <v>1.674</v>
+        <v>1674</v>
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="n">
@@ -11576,7 +11576,7 @@
         <v>0.05</v>
       </c>
       <c r="T139" t="n">
-        <v>1.7577</v>
+        <v>1757.7</v>
       </c>
     </row>
     <row r="140">
@@ -11615,7 +11615,7 @@
         </is>
       </c>
       <c r="I140" t="n">
-        <v>1.32</v>
+        <v>1320</v>
       </c>
       <c r="J140" t="n">
         <v>1</v>
@@ -11656,7 +11656,7 @@
         <v>0.05</v>
       </c>
       <c r="T140" t="n">
-        <v>1.386</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="141">
@@ -11695,7 +11695,7 @@
         </is>
       </c>
       <c r="I141" t="n">
-        <v>1.269</v>
+        <v>1269</v>
       </c>
       <c r="J141" t="n">
         <v>1</v>
@@ -11736,7 +11736,7 @@
         <v>0.05</v>
       </c>
       <c r="T141" t="n">
-        <v>1.33245</v>
+        <v>1332.45</v>
       </c>
     </row>
     <row r="142">
@@ -11775,7 +11775,7 @@
         </is>
       </c>
       <c r="I142" t="n">
-        <v>1.334</v>
+        <v>1334</v>
       </c>
       <c r="J142" t="n">
         <v>1</v>
@@ -11816,7 +11816,7 @@
         <v>0.05</v>
       </c>
       <c r="T142" t="n">
-        <v>1.4007</v>
+        <v>1400.7</v>
       </c>
     </row>
     <row r="143">
@@ -11855,7 +11855,7 @@
         </is>
       </c>
       <c r="I143" t="n">
-        <v>1.289</v>
+        <v>1289</v>
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="n">
@@ -11896,7 +11896,7 @@
         <v>0.05</v>
       </c>
       <c r="T143" t="n">
-        <v>1.35345</v>
+        <v>1353.45</v>
       </c>
     </row>
     <row r="144">
@@ -11935,7 +11935,7 @@
         </is>
       </c>
       <c r="I144" t="n">
-        <v>1.45</v>
+        <v>1450</v>
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="n">
@@ -11976,7 +11976,7 @@
         <v>0.05</v>
       </c>
       <c r="T144" t="n">
-        <v>1.5225</v>
+        <v>1522.5</v>
       </c>
     </row>
     <row r="145">
@@ -12015,7 +12015,7 @@
         </is>
       </c>
       <c r="I145" t="n">
-        <v>1.314</v>
+        <v>1314</v>
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="n">
@@ -12056,7 +12056,7 @@
         <v>0.05</v>
       </c>
       <c r="T145" t="n">
-        <v>1.3797</v>
+        <v>1379.7</v>
       </c>
     </row>
     <row r="146">
@@ -12095,7 +12095,7 @@
         </is>
       </c>
       <c r="I146" t="n">
-        <v>1.326</v>
+        <v>1326</v>
       </c>
       <c r="J146" t="n">
         <v>1</v>
@@ -12136,7 +12136,7 @@
         <v>0.05</v>
       </c>
       <c r="T146" t="n">
-        <v>1.3923</v>
+        <v>1392.3</v>
       </c>
     </row>
     <row r="147">
@@ -12255,7 +12255,7 @@
         </is>
       </c>
       <c r="I148" t="n">
-        <v>1.603</v>
+        <v>1603</v>
       </c>
       <c r="J148" t="n">
         <v>1</v>
@@ -12296,7 +12296,7 @@
         <v>0.05</v>
       </c>
       <c r="T148" t="n">
-        <v>1.68315</v>
+        <v>1683.15</v>
       </c>
     </row>
     <row r="149">
@@ -12335,7 +12335,7 @@
         </is>
       </c>
       <c r="I149" t="n">
-        <v>1.095</v>
+        <v>1095</v>
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="n">
@@ -12376,7 +12376,7 @@
         <v>0.05</v>
       </c>
       <c r="T149" t="n">
-        <v>1.14975</v>
+        <v>1149.75</v>
       </c>
     </row>
     <row r="150">
@@ -12495,7 +12495,7 @@
         </is>
       </c>
       <c r="I151" t="n">
-        <v>1.587</v>
+        <v>1587</v>
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="n">
@@ -12536,7 +12536,7 @@
         <v>0.05</v>
       </c>
       <c r="T151" t="n">
-        <v>1.66635</v>
+        <v>1666.35</v>
       </c>
     </row>
     <row r="152">
@@ -12575,7 +12575,7 @@
         </is>
       </c>
       <c r="I152" t="n">
-        <v>1.174</v>
+        <v>1174</v>
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="n">
@@ -12616,7 +12616,7 @@
         <v>0.05</v>
       </c>
       <c r="T152" t="n">
-        <v>1.2327</v>
+        <v>1232.7</v>
       </c>
     </row>
     <row r="153">
@@ -12655,7 +12655,7 @@
         </is>
       </c>
       <c r="I153" t="n">
-        <v>1.668</v>
+        <v>1668</v>
       </c>
       <c r="J153" t="n">
         <v>1</v>
@@ -12696,7 +12696,7 @@
         <v>0.05</v>
       </c>
       <c r="T153" t="n">
-        <v>1.7514</v>
+        <v>1751.4</v>
       </c>
     </row>
     <row r="154">
@@ -12735,7 +12735,7 @@
         </is>
       </c>
       <c r="I154" t="n">
-        <v>1.466</v>
+        <v>1466</v>
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="n">
@@ -12776,7 +12776,7 @@
         <v>0.05</v>
       </c>
       <c r="T154" t="n">
-        <v>1.5393</v>
+        <v>1539.3</v>
       </c>
     </row>
     <row r="155">
@@ -12815,7 +12815,7 @@
         </is>
       </c>
       <c r="I155" t="n">
-        <v>1.366</v>
+        <v>1366</v>
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="n">
@@ -12856,7 +12856,7 @@
         <v>0.05</v>
       </c>
       <c r="T155" t="n">
-        <v>1.4343</v>
+        <v>1434.3</v>
       </c>
     </row>
     <row r="156">
@@ -12895,7 +12895,7 @@
         </is>
       </c>
       <c r="I156" t="n">
-        <v>1.026</v>
+        <v>1026</v>
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="n">
@@ -12936,7 +12936,7 @@
         <v>0.05</v>
       </c>
       <c r="T156" t="n">
-        <v>1.0773</v>
+        <v>1077.3</v>
       </c>
     </row>
     <row r="157">
@@ -13055,7 +13055,7 @@
         </is>
       </c>
       <c r="I158" t="n">
-        <v>1.135</v>
+        <v>1135</v>
       </c>
       <c r="J158" t="n">
         <v>1</v>
@@ -13096,7 +13096,7 @@
         <v>0.05</v>
       </c>
       <c r="T158" t="n">
-        <v>1.19175</v>
+        <v>1191.75</v>
       </c>
     </row>
     <row r="159">
@@ -13135,7 +13135,7 @@
         </is>
       </c>
       <c r="I159" t="n">
-        <v>1.306</v>
+        <v>1306</v>
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="n">
@@ -13176,7 +13176,7 @@
         <v>0.05</v>
       </c>
       <c r="T159" t="n">
-        <v>1.3713</v>
+        <v>1371.3</v>
       </c>
     </row>
     <row r="160">
@@ -13215,7 +13215,7 @@
         </is>
       </c>
       <c r="I160" t="n">
-        <v>1.01</v>
+        <v>1010</v>
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="n">
@@ -13256,7 +13256,7 @@
         <v>0.05</v>
       </c>
       <c r="T160" t="n">
-        <v>1.0605</v>
+        <v>1060.5</v>
       </c>
     </row>
     <row r="161">
@@ -13295,7 +13295,7 @@
         </is>
       </c>
       <c r="I161" t="n">
-        <v>1.045</v>
+        <v>1045</v>
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="n">
@@ -13336,7 +13336,7 @@
         <v>0.05</v>
       </c>
       <c r="T161" t="n">
-        <v>1.09725</v>
+        <v>1097.25</v>
       </c>
     </row>
     <row r="162">
@@ -13375,7 +13375,7 @@
         </is>
       </c>
       <c r="I162" t="n">
-        <v>1.078</v>
+        <v>1078</v>
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="n">
@@ -13416,7 +13416,7 @@
         <v>0.05</v>
       </c>
       <c r="T162" t="n">
-        <v>1.1319</v>
+        <v>1131.9</v>
       </c>
     </row>
     <row r="163">
@@ -13455,7 +13455,7 @@
         </is>
       </c>
       <c r="I163" t="n">
-        <v>1.045</v>
+        <v>1045</v>
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="n">
@@ -13496,7 +13496,7 @@
         <v>0.05</v>
       </c>
       <c r="T163" t="n">
-        <v>1.09725</v>
+        <v>1097.25</v>
       </c>
     </row>
     <row r="164">
@@ -13535,7 +13535,7 @@
         </is>
       </c>
       <c r="I164" t="n">
-        <v>1.183</v>
+        <v>1183</v>
       </c>
       <c r="J164" t="n">
         <v>1</v>
@@ -13576,7 +13576,7 @@
         <v>0.05</v>
       </c>
       <c r="T164" t="n">
-        <v>1.24215</v>
+        <v>1242.15</v>
       </c>
     </row>
     <row r="165">
@@ -13615,7 +13615,7 @@
         </is>
       </c>
       <c r="I165" t="n">
-        <v>1.339</v>
+        <v>1339</v>
       </c>
       <c r="J165" t="n">
         <v>1</v>
@@ -13656,7 +13656,7 @@
         <v>0.05</v>
       </c>
       <c r="T165" t="n">
-        <v>1.40595</v>
+        <v>1405.95</v>
       </c>
     </row>
     <row r="166">
@@ -13935,7 +13935,7 @@
         </is>
       </c>
       <c r="I169" t="n">
-        <v>1.228</v>
+        <v>1228</v>
       </c>
       <c r="J169" t="n">
         <v>1</v>
@@ -13976,7 +13976,7 @@
         <v>0.05</v>
       </c>
       <c r="T169" t="n">
-        <v>1.2894</v>
+        <v>1289.4</v>
       </c>
     </row>
     <row r="170">
@@ -14335,7 +14335,7 @@
         </is>
       </c>
       <c r="I174" t="n">
-        <v>1.018</v>
+        <v>1018</v>
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="n">
@@ -14376,7 +14376,7 @@
         <v>0.05</v>
       </c>
       <c r="T174" t="n">
-        <v>1.0689</v>
+        <v>1068.9</v>
       </c>
     </row>
     <row r="175">
@@ -14415,7 +14415,7 @@
         </is>
       </c>
       <c r="I175" t="n">
-        <v>1.107</v>
+        <v>1107</v>
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="n">
@@ -14456,7 +14456,7 @@
         <v>0.05</v>
       </c>
       <c r="T175" t="n">
-        <v>1.16235</v>
+        <v>1162.35</v>
       </c>
     </row>
     <row r="176">
@@ -14495,7 +14495,7 @@
         </is>
       </c>
       <c r="I176" t="n">
-        <v>1.624</v>
+        <v>1624</v>
       </c>
       <c r="J176" t="n">
         <v>1</v>
@@ -14536,7 +14536,7 @@
         <v>0.05</v>
       </c>
       <c r="T176" t="n">
-        <v>1.7052</v>
+        <v>1705.2</v>
       </c>
     </row>
     <row r="177">
@@ -14575,7 +14575,7 @@
         </is>
       </c>
       <c r="I177" t="n">
-        <v>1.214</v>
+        <v>1214</v>
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="n">
@@ -14616,7 +14616,7 @@
         <v>0.05</v>
       </c>
       <c r="T177" t="n">
-        <v>1.2747</v>
+        <v>1274.7</v>
       </c>
     </row>
     <row r="178">
@@ -14655,7 +14655,7 @@
         </is>
       </c>
       <c r="I178" t="n">
-        <v>1.009</v>
+        <v>1009</v>
       </c>
       <c r="J178" t="n">
         <v>1</v>
@@ -14696,7 +14696,7 @@
         <v>0.05</v>
       </c>
       <c r="T178" t="n">
-        <v>1.05945</v>
+        <v>1059.45</v>
       </c>
     </row>
     <row r="179">
@@ -14815,7 +14815,7 @@
         </is>
       </c>
       <c r="I180" t="n">
-        <v>1.056</v>
+        <v>1056</v>
       </c>
       <c r="J180" t="n">
         <v>1</v>
@@ -14856,7 +14856,7 @@
         <v>0.05</v>
       </c>
       <c r="T180" t="n">
-        <v>1.1088</v>
+        <v>1108.8</v>
       </c>
     </row>
     <row r="181">
@@ -14895,7 +14895,7 @@
         </is>
       </c>
       <c r="I181" t="n">
-        <v>1.377</v>
+        <v>1377</v>
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="n">
@@ -14936,7 +14936,7 @@
         <v>0.05</v>
       </c>
       <c r="T181" t="n">
-        <v>1.44585</v>
+        <v>1445.85</v>
       </c>
     </row>
     <row r="182">
@@ -14975,7 +14975,7 @@
         </is>
       </c>
       <c r="I182" t="n">
-        <v>1.414</v>
+        <v>1414</v>
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="n">
@@ -15016,7 +15016,7 @@
         <v>0.05</v>
       </c>
       <c r="T182" t="n">
-        <v>1.4847</v>
+        <v>1484.7</v>
       </c>
     </row>
     <row r="183">
@@ -15135,7 +15135,7 @@
         </is>
       </c>
       <c r="I184" t="n">
-        <v>1.147</v>
+        <v>1147</v>
       </c>
       <c r="J184" t="n">
         <v>1</v>
@@ -15176,7 +15176,7 @@
         <v>0.05</v>
       </c>
       <c r="T184" t="n">
-        <v>1.20435</v>
+        <v>1204.35</v>
       </c>
     </row>
     <row r="185">
@@ -15215,7 +15215,7 @@
         </is>
       </c>
       <c r="I185" t="n">
-        <v>1.392</v>
+        <v>1392</v>
       </c>
       <c r="J185" t="n">
         <v>1</v>
@@ -15256,7 +15256,7 @@
         <v>0.05</v>
       </c>
       <c r="T185" t="n">
-        <v>1.4616</v>
+        <v>1461.6</v>
       </c>
     </row>
     <row r="186">
@@ -15295,7 +15295,7 @@
         </is>
       </c>
       <c r="I186" t="n">
-        <v>1.006</v>
+        <v>1006</v>
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="n">
@@ -15336,7 +15336,7 @@
         <v>0.05</v>
       </c>
       <c r="T186" t="n">
-        <v>1.0563</v>
+        <v>1056.3</v>
       </c>
     </row>
     <row r="187">
@@ -15375,7 +15375,7 @@
         </is>
       </c>
       <c r="I187" t="n">
-        <v>1.055</v>
+        <v>1055</v>
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="n">
@@ -15416,7 +15416,7 @@
         <v>0.05</v>
       </c>
       <c r="T187" t="n">
-        <v>1.10775</v>
+        <v>1107.75</v>
       </c>
     </row>
     <row r="188">
@@ -15455,7 +15455,7 @@
         </is>
       </c>
       <c r="I188" t="n">
-        <v>1.225</v>
+        <v>1225</v>
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="n">
@@ -15496,7 +15496,7 @@
         <v>0.05</v>
       </c>
       <c r="T188" t="n">
-        <v>1.28625</v>
+        <v>1286.25</v>
       </c>
     </row>
     <row r="189">
@@ -15855,7 +15855,7 @@
         </is>
       </c>
       <c r="I193" t="n">
-        <v>1.123</v>
+        <v>1123</v>
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="n">
@@ -15896,7 +15896,7 @@
         <v>0.05</v>
       </c>
       <c r="T193" t="n">
-        <v>1.17915</v>
+        <v>1179.15</v>
       </c>
     </row>
     <row r="194">
@@ -16015,7 +16015,7 @@
         </is>
       </c>
       <c r="I195" t="n">
-        <v>1.466</v>
+        <v>1466</v>
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="n">
@@ -16056,7 +16056,7 @@
         <v>0.05</v>
       </c>
       <c r="T195" t="n">
-        <v>1.5393</v>
+        <v>1539.3</v>
       </c>
     </row>
     <row r="196">
@@ -16255,7 +16255,7 @@
         </is>
       </c>
       <c r="I198" t="n">
-        <v>1.408</v>
+        <v>1408</v>
       </c>
       <c r="J198" t="n">
         <v>1</v>
@@ -16296,7 +16296,7 @@
         <v>0.05</v>
       </c>
       <c r="T198" t="n">
-        <v>1.4784</v>
+        <v>1478.4</v>
       </c>
     </row>
     <row r="199">
@@ -16415,7 +16415,7 @@
         </is>
       </c>
       <c r="I200" t="n">
-        <v>1.332</v>
+        <v>1332</v>
       </c>
       <c r="J200" t="n">
         <v>1</v>
@@ -16456,7 +16456,7 @@
         <v>0.05</v>
       </c>
       <c r="T200" t="n">
-        <v>1.3986</v>
+        <v>1398.6</v>
       </c>
     </row>
     <row r="201">
@@ -16495,7 +16495,7 @@
         </is>
       </c>
       <c r="I201" t="n">
-        <v>1.081</v>
+        <v>1081</v>
       </c>
       <c r="J201" t="n">
         <v>1</v>
@@ -16536,7 +16536,7 @@
         <v>0.05</v>
       </c>
       <c r="T201" t="n">
-        <v>1.13505</v>
+        <v>1135.05</v>
       </c>
     </row>
     <row r="202">
@@ -16575,7 +16575,7 @@
         </is>
       </c>
       <c r="I202" t="n">
-        <v>1.024</v>
+        <v>1024</v>
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="n">
@@ -16616,7 +16616,7 @@
         <v>0.05</v>
       </c>
       <c r="T202" t="n">
-        <v>1.0752</v>
+        <v>1075.2</v>
       </c>
     </row>
     <row r="203">
@@ -16655,7 +16655,7 @@
         </is>
       </c>
       <c r="I203" t="n">
-        <v>1.256</v>
+        <v>1256</v>
       </c>
       <c r="J203" t="n">
         <v>1</v>
@@ -16696,7 +16696,7 @@
         <v>0.05</v>
       </c>
       <c r="T203" t="n">
-        <v>1.3188</v>
+        <v>1318.8</v>
       </c>
     </row>
     <row r="204">
@@ -16735,7 +16735,7 @@
         </is>
       </c>
       <c r="I204" t="n">
-        <v>1.275</v>
+        <v>1275</v>
       </c>
       <c r="J204" t="n">
         <v>1</v>
@@ -16776,7 +16776,7 @@
         <v>0.05</v>
       </c>
       <c r="T204" t="n">
-        <v>1.33875</v>
+        <v>1338.75</v>
       </c>
     </row>
     <row r="205">
@@ -16815,7 +16815,7 @@
         </is>
       </c>
       <c r="I205" t="n">
-        <v>1.668</v>
+        <v>1668</v>
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="n">
@@ -16856,7 +16856,7 @@
         <v>0.05</v>
       </c>
       <c r="T205" t="n">
-        <v>1.7514</v>
+        <v>1751.4</v>
       </c>
     </row>
     <row r="206">
@@ -16895,7 +16895,7 @@
         </is>
       </c>
       <c r="I206" t="n">
-        <v>1.045</v>
+        <v>1045</v>
       </c>
       <c r="J206" t="n">
         <v>1</v>
@@ -16936,7 +16936,7 @@
         <v>0.05</v>
       </c>
       <c r="T206" t="n">
-        <v>1.09725</v>
+        <v>1097.25</v>
       </c>
     </row>
     <row r="207">
@@ -16975,7 +16975,7 @@
         </is>
       </c>
       <c r="I207" t="n">
-        <v>1.4</v>
+        <v>1400</v>
       </c>
       <c r="J207" t="n">
         <v>1</v>
@@ -17016,7 +17016,7 @@
         <v>0.05</v>
       </c>
       <c r="T207" t="n">
-        <v>1.47</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="208">
@@ -17055,7 +17055,7 @@
         </is>
       </c>
       <c r="I208" t="n">
-        <v>1.33</v>
+        <v>1330</v>
       </c>
       <c r="J208" t="n">
         <v>1</v>
@@ -17096,7 +17096,7 @@
         <v>0.05</v>
       </c>
       <c r="T208" t="n">
-        <v>1.3965</v>
+        <v>1396.5</v>
       </c>
     </row>
     <row r="209">
@@ -17135,7 +17135,7 @@
         </is>
       </c>
       <c r="I209" t="n">
-        <v>1.294</v>
+        <v>1294</v>
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="n">
@@ -17176,7 +17176,7 @@
         <v>0.05</v>
       </c>
       <c r="T209" t="n">
-        <v>1.3587</v>
+        <v>1358.7</v>
       </c>
     </row>
     <row r="210">
@@ -17215,7 +17215,7 @@
         </is>
       </c>
       <c r="I210" t="n">
-        <v>1.303</v>
+        <v>1303</v>
       </c>
       <c r="J210" t="n">
         <v>1</v>
@@ -17256,7 +17256,7 @@
         <v>0.05</v>
       </c>
       <c r="T210" t="n">
-        <v>1.36815</v>
+        <v>1368.15</v>
       </c>
     </row>
     <row r="211">
@@ -17375,7 +17375,7 @@
         </is>
       </c>
       <c r="I212" t="n">
-        <v>1.535</v>
+        <v>1535</v>
       </c>
       <c r="J212" t="n">
         <v>1</v>
@@ -17416,7 +17416,7 @@
         <v>0.05</v>
       </c>
       <c r="T212" t="n">
-        <v>1.61175</v>
+        <v>1611.75</v>
       </c>
     </row>
     <row r="213">
@@ -17535,7 +17535,7 @@
         </is>
       </c>
       <c r="I214" t="n">
-        <v>1.484</v>
+        <v>1484</v>
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="n">
@@ -17576,7 +17576,7 @@
         <v>0.05</v>
       </c>
       <c r="T214" t="n">
-        <v>1.5582</v>
+        <v>1558.2</v>
       </c>
     </row>
     <row r="215">
@@ -17615,7 +17615,7 @@
         </is>
       </c>
       <c r="I215" t="n">
-        <v>1.324</v>
+        <v>1324</v>
       </c>
       <c r="J215" t="n">
         <v>1</v>
@@ -17656,7 +17656,7 @@
         <v>0.05</v>
       </c>
       <c r="T215" t="n">
-        <v>1.3902</v>
+        <v>1390.2</v>
       </c>
     </row>
     <row r="216">
@@ -17695,7 +17695,7 @@
         </is>
       </c>
       <c r="I216" t="n">
-        <v>1.055</v>
+        <v>1055</v>
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="n">
@@ -17736,7 +17736,7 @@
         <v>0.05</v>
       </c>
       <c r="T216" t="n">
-        <v>1.10775</v>
+        <v>1107.75</v>
       </c>
     </row>
     <row r="217">
@@ -17775,7 +17775,7 @@
         </is>
       </c>
       <c r="I217" t="n">
-        <v>1.014</v>
+        <v>1014</v>
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="n">
@@ -17816,7 +17816,7 @@
         <v>0.05</v>
       </c>
       <c r="T217" t="n">
-        <v>1.0647</v>
+        <v>1064.7</v>
       </c>
     </row>
     <row r="218">
@@ -17855,7 +17855,7 @@
         </is>
       </c>
       <c r="I218" t="n">
-        <v>1.585</v>
+        <v>1585</v>
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="n">
@@ -17896,7 +17896,7 @@
         <v>0.05</v>
       </c>
       <c r="T218" t="n">
-        <v>1.66425</v>
+        <v>1664.25</v>
       </c>
     </row>
     <row r="219">
@@ -18095,7 +18095,7 @@
         </is>
       </c>
       <c r="I221" t="n">
-        <v>1.104</v>
+        <v>1104</v>
       </c>
       <c r="J221" t="n">
         <v>1</v>
@@ -18136,7 +18136,7 @@
         <v>0.05</v>
       </c>
       <c r="T221" t="n">
-        <v>1.1592</v>
+        <v>1159.2</v>
       </c>
     </row>
     <row r="222">
@@ -18175,7 +18175,7 @@
         </is>
       </c>
       <c r="I222" t="n">
-        <v>1.117</v>
+        <v>1117</v>
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="n">
@@ -18216,7 +18216,7 @@
         <v>0.05</v>
       </c>
       <c r="T222" t="n">
-        <v>1.17285</v>
+        <v>1172.85</v>
       </c>
     </row>
     <row r="223">
@@ -18335,7 +18335,7 @@
         </is>
       </c>
       <c r="I224" t="n">
-        <v>1.179</v>
+        <v>1179</v>
       </c>
       <c r="J224" t="n">
         <v>1</v>
@@ -18376,7 +18376,7 @@
         <v>0.05</v>
       </c>
       <c r="T224" t="n">
-        <v>1.23795</v>
+        <v>1237.95</v>
       </c>
     </row>
     <row r="225">
@@ -18415,7 +18415,7 @@
         </is>
       </c>
       <c r="I225" t="n">
-        <v>1.286</v>
+        <v>1286</v>
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="n">
@@ -18456,7 +18456,7 @@
         <v>0.05</v>
       </c>
       <c r="T225" t="n">
-        <v>1.3503</v>
+        <v>1350.3</v>
       </c>
     </row>
     <row r="226">
@@ -18495,7 +18495,7 @@
         </is>
       </c>
       <c r="I226" t="n">
-        <v>1.01</v>
+        <v>1010</v>
       </c>
       <c r="J226" t="n">
         <v>1</v>
@@ -18536,7 +18536,7 @@
         <v>0.05</v>
       </c>
       <c r="T226" t="n">
-        <v>1.0605</v>
+        <v>1060.5</v>
       </c>
     </row>
     <row r="227">
@@ -18655,7 +18655,7 @@
         </is>
       </c>
       <c r="I228" t="n">
-        <v>1.202</v>
+        <v>1202</v>
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="n">
@@ -18696,7 +18696,7 @@
         <v>0.05</v>
       </c>
       <c r="T228" t="n">
-        <v>1.2621</v>
+        <v>1262.1</v>
       </c>
     </row>
     <row r="229">
@@ -18815,7 +18815,7 @@
         </is>
       </c>
       <c r="I230" t="n">
-        <v>1.024</v>
+        <v>1024</v>
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="n">
@@ -18856,7 +18856,7 @@
         <v>0.05</v>
       </c>
       <c r="T230" t="n">
-        <v>1.0752</v>
+        <v>1075.2</v>
       </c>
     </row>
     <row r="231">
@@ -19215,7 +19215,7 @@
         </is>
       </c>
       <c r="I235" t="n">
-        <v>1.421</v>
+        <v>1421</v>
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="n">
@@ -19256,7 +19256,7 @@
         <v>0.05</v>
       </c>
       <c r="T235" t="n">
-        <v>1.49205</v>
+        <v>1492.05</v>
       </c>
     </row>
     <row r="236">
@@ -19455,7 +19455,7 @@
         </is>
       </c>
       <c r="I238" t="n">
-        <v>1.121</v>
+        <v>1121</v>
       </c>
       <c r="J238" t="n">
         <v>1</v>
@@ -19496,7 +19496,7 @@
         <v>0.05</v>
       </c>
       <c r="T238" t="n">
-        <v>1.17705</v>
+        <v>1177.05</v>
       </c>
     </row>
     <row r="239">
@@ -19615,7 +19615,7 @@
         </is>
       </c>
       <c r="I240" t="n">
-        <v>1.219</v>
+        <v>1219</v>
       </c>
       <c r="J240" t="n">
         <v>1</v>
@@ -19656,7 +19656,7 @@
         <v>0.05</v>
       </c>
       <c r="T240" t="n">
-        <v>1.27995</v>
+        <v>1279.95</v>
       </c>
     </row>
     <row r="241">
@@ -19695,7 +19695,7 @@
         </is>
       </c>
       <c r="I241" t="n">
-        <v>1.541</v>
+        <v>1541</v>
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="n">
@@ -19736,7 +19736,7 @@
         <v>0.05</v>
       </c>
       <c r="T241" t="n">
-        <v>1.61805</v>
+        <v>1618.05</v>
       </c>
     </row>
     <row r="242">
@@ -19855,7 +19855,7 @@
         </is>
       </c>
       <c r="I243" t="n">
-        <v>1.594</v>
+        <v>1594</v>
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="n">
@@ -19896,7 +19896,7 @@
         <v>0.05</v>
       </c>
       <c r="T243" t="n">
-        <v>1.6737</v>
+        <v>1673.7</v>
       </c>
     </row>
     <row r="244">
@@ -19935,7 +19935,7 @@
         </is>
       </c>
       <c r="I244" t="n">
-        <v>1.498</v>
+        <v>1498</v>
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="n">
@@ -19976,7 +19976,7 @@
         <v>0.05</v>
       </c>
       <c r="T244" t="n">
-        <v>1.5729</v>
+        <v>1572.9</v>
       </c>
     </row>
     <row r="245">
@@ -20015,7 +20015,7 @@
         </is>
       </c>
       <c r="I245" t="n">
-        <v>1.007</v>
+        <v>1007</v>
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="n">
@@ -20056,7 +20056,7 @@
         <v>0.05</v>
       </c>
       <c r="T245" t="n">
-        <v>1.05735</v>
+        <v>1057.35</v>
       </c>
     </row>
     <row r="246">
@@ -20095,7 +20095,7 @@
         </is>
       </c>
       <c r="I246" t="n">
-        <v>1.411</v>
+        <v>1411</v>
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="n">
@@ -20136,7 +20136,7 @@
         <v>0.05</v>
       </c>
       <c r="T246" t="n">
-        <v>1.48155</v>
+        <v>1481.55</v>
       </c>
     </row>
     <row r="247">
@@ -20175,7 +20175,7 @@
         </is>
       </c>
       <c r="I247" t="n">
-        <v>1.207</v>
+        <v>1207</v>
       </c>
       <c r="J247" t="n">
         <v>1</v>
@@ -20216,7 +20216,7 @@
         <v>0.05</v>
       </c>
       <c r="T247" t="n">
-        <v>1.26735</v>
+        <v>1267.35</v>
       </c>
     </row>
     <row r="248">
@@ -20335,7 +20335,7 @@
         </is>
       </c>
       <c r="I249" t="n">
-        <v>1.399</v>
+        <v>1399</v>
       </c>
       <c r="J249" t="n">
         <v>1</v>
@@ -20376,7 +20376,7 @@
         <v>0.05</v>
       </c>
       <c r="T249" t="n">
-        <v>1.46895</v>
+        <v>1468.95</v>
       </c>
     </row>
     <row r="250">
@@ -20415,7 +20415,7 @@
         </is>
       </c>
       <c r="I250" t="n">
-        <v>1.519</v>
+        <v>1519</v>
       </c>
       <c r="J250" t="n">
         <v>1</v>
@@ -20456,7 +20456,7 @@
         <v>0.05</v>
       </c>
       <c r="T250" t="n">
-        <v>1.59495</v>
+        <v>1594.95</v>
       </c>
     </row>
     <row r="251">
@@ -20575,7 +20575,7 @@
         </is>
       </c>
       <c r="I252" t="n">
-        <v>1.564</v>
+        <v>1564</v>
       </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="n">
@@ -20616,7 +20616,7 @@
         <v>0.05</v>
       </c>
       <c r="T252" t="n">
-        <v>1.6422</v>
+        <v>1642.2</v>
       </c>
     </row>
     <row r="253">
@@ -20655,7 +20655,7 @@
         </is>
       </c>
       <c r="I253" t="n">
-        <v>1.408</v>
+        <v>1408</v>
       </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="n">
@@ -20696,7 +20696,7 @@
         <v>0.05</v>
       </c>
       <c r="T253" t="n">
-        <v>1.4784</v>
+        <v>1478.4</v>
       </c>
     </row>
     <row r="254">
@@ -20735,7 +20735,7 @@
         </is>
       </c>
       <c r="I254" t="n">
-        <v>1.165</v>
+        <v>1165</v>
       </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="n">
@@ -20776,7 +20776,7 @@
         <v>0.05</v>
       </c>
       <c r="T254" t="n">
-        <v>1.22325</v>
+        <v>1223.25</v>
       </c>
     </row>
     <row r="255">
@@ -20815,7 +20815,7 @@
         </is>
       </c>
       <c r="I255" t="n">
-        <v>1.533</v>
+        <v>1533</v>
       </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="n">
@@ -20856,7 +20856,7 @@
         <v>0.05</v>
       </c>
       <c r="T255" t="n">
-        <v>1.60965</v>
+        <v>1609.65</v>
       </c>
     </row>
     <row r="256">
@@ -20895,7 +20895,7 @@
         </is>
       </c>
       <c r="I256" t="n">
-        <v>1.091</v>
+        <v>1091</v>
       </c>
       <c r="J256" t="n">
         <v>1</v>
@@ -20936,7 +20936,7 @@
         <v>0.05</v>
       </c>
       <c r="T256" t="n">
-        <v>1.14555</v>
+        <v>1145.55</v>
       </c>
     </row>
     <row r="257">
@@ -20975,7 +20975,7 @@
         </is>
       </c>
       <c r="I257" t="n">
-        <v>1.667</v>
+        <v>1667</v>
       </c>
       <c r="J257" t="n">
         <v>1</v>
@@ -21016,7 +21016,7 @@
         <v>0.05</v>
       </c>
       <c r="T257" t="n">
-        <v>1.75035</v>
+        <v>1750.35</v>
       </c>
     </row>
     <row r="258">
@@ -21135,7 +21135,7 @@
         </is>
       </c>
       <c r="I259" t="n">
-        <v>1.344</v>
+        <v>1344</v>
       </c>
       <c r="J259" t="n">
         <v>1</v>
@@ -21176,7 +21176,7 @@
         <v>0.05</v>
       </c>
       <c r="T259" t="n">
-        <v>1.4112</v>
+        <v>1411.2</v>
       </c>
     </row>
     <row r="260">
@@ -21295,7 +21295,7 @@
         </is>
       </c>
       <c r="I261" t="n">
-        <v>1.46</v>
+        <v>1460</v>
       </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="n">
@@ -21336,7 +21336,7 @@
         <v>0.05</v>
       </c>
       <c r="T261" t="n">
-        <v>1.533</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="262">
@@ -21375,7 +21375,7 @@
         </is>
       </c>
       <c r="I262" t="n">
-        <v>1.312</v>
+        <v>1312</v>
       </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="n">
@@ -21416,7 +21416,7 @@
         <v>0.05</v>
       </c>
       <c r="T262" t="n">
-        <v>1.3776</v>
+        <v>1377.6</v>
       </c>
     </row>
     <row r="263">
@@ -21455,7 +21455,7 @@
         </is>
       </c>
       <c r="I263" t="n">
-        <v>1.485</v>
+        <v>1485</v>
       </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="n">
@@ -21496,7 +21496,7 @@
         <v>0.05</v>
       </c>
       <c r="T263" t="n">
-        <v>1.55925</v>
+        <v>1559.25</v>
       </c>
     </row>
     <row r="264">
@@ -21615,7 +21615,7 @@
         </is>
       </c>
       <c r="I265" t="n">
-        <v>1.108</v>
+        <v>1108</v>
       </c>
       <c r="J265" t="n">
         <v>1</v>
@@ -21656,7 +21656,7 @@
         <v>0.05</v>
       </c>
       <c r="T265" t="n">
-        <v>1.1634</v>
+        <v>1163.4</v>
       </c>
     </row>
     <row r="266">
@@ -21695,7 +21695,7 @@
         </is>
       </c>
       <c r="I266" t="n">
-        <v>1.03</v>
+        <v>1030</v>
       </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="n">
@@ -21736,7 +21736,7 @@
         <v>0.05</v>
       </c>
       <c r="T266" t="n">
-        <v>1.0815</v>
+        <v>1081.5</v>
       </c>
     </row>
     <row r="267">
@@ -21775,7 +21775,7 @@
         </is>
       </c>
       <c r="I267" t="n">
-        <v>1.249</v>
+        <v>1249</v>
       </c>
       <c r="J267" t="n">
         <v>1</v>
@@ -21816,7 +21816,7 @@
         <v>0.05</v>
       </c>
       <c r="T267" t="n">
-        <v>1.31145</v>
+        <v>1311.45</v>
       </c>
     </row>
     <row r="268">
@@ -21855,7 +21855,7 @@
         </is>
       </c>
       <c r="I268" t="n">
-        <v>1.012</v>
+        <v>1012</v>
       </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="n">
@@ -21896,7 +21896,7 @@
         <v>0.05</v>
       </c>
       <c r="T268" t="n">
-        <v>1.0626</v>
+        <v>1062.6</v>
       </c>
     </row>
     <row r="269">
@@ -21935,7 +21935,7 @@
         </is>
       </c>
       <c r="I269" t="n">
-        <v>1.599</v>
+        <v>1599</v>
       </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="n">
@@ -21976,7 +21976,7 @@
         <v>0.05</v>
       </c>
       <c r="T269" t="n">
-        <v>1.67895</v>
+        <v>1678.95</v>
       </c>
     </row>
     <row r="270">
@@ -22015,7 +22015,7 @@
         </is>
       </c>
       <c r="I270" t="n">
-        <v>1.634</v>
+        <v>1634</v>
       </c>
       <c r="J270" t="n">
         <v>1</v>
@@ -22056,7 +22056,7 @@
         <v>0.05</v>
       </c>
       <c r="T270" t="n">
-        <v>1.7157</v>
+        <v>1715.7</v>
       </c>
     </row>
     <row r="271">
@@ -22095,7 +22095,7 @@
         </is>
       </c>
       <c r="I271" t="n">
-        <v>1.081</v>
+        <v>1081</v>
       </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="n">
@@ -22136,7 +22136,7 @@
         <v>0.05</v>
       </c>
       <c r="T271" t="n">
-        <v>1.13505</v>
+        <v>1135.05</v>
       </c>
     </row>
     <row r="272">
@@ -22175,7 +22175,7 @@
         </is>
       </c>
       <c r="I272" t="n">
-        <v>1.368</v>
+        <v>1368</v>
       </c>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="n">
@@ -22216,7 +22216,7 @@
         <v>0.05</v>
       </c>
       <c r="T272" t="n">
-        <v>1.4364</v>
+        <v>1436.4</v>
       </c>
     </row>
     <row r="273">
@@ -22255,7 +22255,7 @@
         </is>
       </c>
       <c r="I273" t="n">
-        <v>1.435</v>
+        <v>1435</v>
       </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="n">
@@ -22296,7 +22296,7 @@
         <v>0.05</v>
       </c>
       <c r="T273" t="n">
-        <v>1.50675</v>
+        <v>1506.75</v>
       </c>
     </row>
     <row r="274">
@@ -22335,7 +22335,7 @@
         </is>
       </c>
       <c r="I274" t="n">
-        <v>1.365</v>
+        <v>1365</v>
       </c>
       <c r="J274" t="n">
         <v>1</v>
@@ -22365,7 +22365,7 @@
         <v>33181</v>
       </c>
       <c r="Q274" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R274" t="inlineStr">
         <is>
@@ -22376,7 +22376,7 @@
         <v>0.05</v>
       </c>
       <c r="T274" t="n">
-        <v>1.43325</v>
+        <v>1433.25</v>
       </c>
     </row>
     <row r="275">
@@ -22415,7 +22415,7 @@
         </is>
       </c>
       <c r="I275" t="n">
-        <v>1.037</v>
+        <v>1037</v>
       </c>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="n">
@@ -22456,7 +22456,7 @@
         <v>0.05</v>
       </c>
       <c r="T275" t="n">
-        <v>1.08885</v>
+        <v>1088.85</v>
       </c>
     </row>
     <row r="276">
@@ -22495,7 +22495,7 @@
         </is>
       </c>
       <c r="I276" t="n">
-        <v>1.065</v>
+        <v>1065</v>
       </c>
       <c r="J276" t="n">
         <v>1</v>
@@ -22536,7 +22536,7 @@
         <v>0.05</v>
       </c>
       <c r="T276" t="n">
-        <v>1.11825</v>
+        <v>1118.25</v>
       </c>
     </row>
     <row r="277">
@@ -22575,7 +22575,7 @@
         </is>
       </c>
       <c r="I277" t="n">
-        <v>1.546</v>
+        <v>1546</v>
       </c>
       <c r="J277" t="n">
         <v>1</v>
@@ -22616,7 +22616,7 @@
         <v>0.05</v>
       </c>
       <c r="T277" t="n">
-        <v>1.6233</v>
+        <v>1623.3</v>
       </c>
     </row>
     <row r="278">
@@ -22655,7 +22655,7 @@
         </is>
       </c>
       <c r="I278" t="n">
-        <v>1.438</v>
+        <v>1438</v>
       </c>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="n">
@@ -22696,7 +22696,7 @@
         <v>0.05</v>
       </c>
       <c r="T278" t="n">
-        <v>1.5099</v>
+        <v>1509.9</v>
       </c>
     </row>
     <row r="279">
@@ -22815,7 +22815,7 @@
         </is>
       </c>
       <c r="I280" t="n">
-        <v>1.443</v>
+        <v>1443</v>
       </c>
       <c r="J280" t="n">
         <v>1</v>
@@ -22856,7 +22856,7 @@
         <v>0.05</v>
       </c>
       <c r="T280" t="n">
-        <v>1.51515</v>
+        <v>1515.15</v>
       </c>
     </row>
     <row r="281">
@@ -22895,7 +22895,7 @@
         </is>
       </c>
       <c r="I281" t="n">
-        <v>1.015</v>
+        <v>1015</v>
       </c>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="n">
@@ -22936,7 +22936,7 @@
         <v>0.05</v>
       </c>
       <c r="T281" t="n">
-        <v>1.06575</v>
+        <v>1065.75</v>
       </c>
     </row>
     <row r="282">
@@ -22975,7 +22975,7 @@
         </is>
       </c>
       <c r="I282" t="n">
-        <v>1.045</v>
+        <v>1045</v>
       </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="n">
@@ -23016,7 +23016,7 @@
         <v>0.05</v>
       </c>
       <c r="T282" t="n">
-        <v>1.09725</v>
+        <v>1097.25</v>
       </c>
     </row>
     <row r="283">
@@ -23135,7 +23135,7 @@
         </is>
       </c>
       <c r="I284" t="n">
-        <v>1.416</v>
+        <v>1416</v>
       </c>
       <c r="J284" t="n">
         <v>1</v>
@@ -23176,7 +23176,7 @@
         <v>0.05</v>
       </c>
       <c r="T284" t="n">
-        <v>1.4868</v>
+        <v>1486.8</v>
       </c>
     </row>
     <row r="285">
@@ -23215,7 +23215,7 @@
         </is>
       </c>
       <c r="I285" t="n">
-        <v>1.024</v>
+        <v>1024</v>
       </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="n">
@@ -23256,7 +23256,7 @@
         <v>0.05</v>
       </c>
       <c r="T285" t="n">
-        <v>1.0752</v>
+        <v>1075.2</v>
       </c>
     </row>
     <row r="286">
@@ -23295,7 +23295,7 @@
         </is>
       </c>
       <c r="I286" t="n">
-        <v>1.276</v>
+        <v>1276</v>
       </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="n">
@@ -23336,7 +23336,7 @@
         <v>0.05</v>
       </c>
       <c r="T286" t="n">
-        <v>1.3398</v>
+        <v>1339.8</v>
       </c>
     </row>
     <row r="287">
@@ -23375,7 +23375,7 @@
         </is>
       </c>
       <c r="I287" t="n">
-        <v>1.043</v>
+        <v>1043</v>
       </c>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="n">
@@ -23416,7 +23416,7 @@
         <v>0.05</v>
       </c>
       <c r="T287" t="n">
-        <v>1.09515</v>
+        <v>1095.15</v>
       </c>
     </row>
     <row r="288">
@@ -23455,7 +23455,7 @@
         </is>
       </c>
       <c r="I288" t="n">
-        <v>1.634</v>
+        <v>1634</v>
       </c>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="n">
@@ -23496,7 +23496,7 @@
         <v>0.05</v>
       </c>
       <c r="T288" t="n">
-        <v>1.7157</v>
+        <v>1715.7</v>
       </c>
     </row>
     <row r="289">
@@ -23535,7 +23535,7 @@
         </is>
       </c>
       <c r="I289" t="n">
-        <v>1.473</v>
+        <v>1473</v>
       </c>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="n">
@@ -23576,7 +23576,7 @@
         <v>0.05</v>
       </c>
       <c r="T289" t="n">
-        <v>1.54665</v>
+        <v>1546.65</v>
       </c>
     </row>
     <row r="290">
@@ -23615,7 +23615,7 @@
         </is>
       </c>
       <c r="I290" t="n">
-        <v>1.213</v>
+        <v>1213</v>
       </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="n">
@@ -23656,7 +23656,7 @@
         <v>0.05</v>
       </c>
       <c r="T290" t="n">
-        <v>1.27365</v>
+        <v>1273.65</v>
       </c>
     </row>
     <row r="291">
@@ -23775,7 +23775,7 @@
         </is>
       </c>
       <c r="I292" t="n">
-        <v>1.197</v>
+        <v>1197</v>
       </c>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="n">
@@ -23816,7 +23816,7 @@
         <v>0.05</v>
       </c>
       <c r="T292" t="n">
-        <v>1.25685</v>
+        <v>1256.85</v>
       </c>
     </row>
     <row r="293">
@@ -23855,7 +23855,7 @@
         </is>
       </c>
       <c r="I293" t="n">
-        <v>1.322</v>
+        <v>1322</v>
       </c>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="n">
@@ -23896,7 +23896,7 @@
         <v>0.05</v>
       </c>
       <c r="T293" t="n">
-        <v>1.3881</v>
+        <v>1388.1</v>
       </c>
     </row>
     <row r="294">
@@ -23935,7 +23935,7 @@
         </is>
       </c>
       <c r="I294" t="n">
-        <v>1.242</v>
+        <v>1242</v>
       </c>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="n">
@@ -23976,7 +23976,7 @@
         <v>0.05</v>
       </c>
       <c r="T294" t="n">
-        <v>1.3041</v>
+        <v>1304.1</v>
       </c>
     </row>
     <row r="295">
@@ -24015,7 +24015,7 @@
         </is>
       </c>
       <c r="I295" t="n">
-        <v>1.249</v>
+        <v>1249</v>
       </c>
       <c r="J295" t="n">
         <v>1</v>
@@ -24056,7 +24056,7 @@
         <v>0.05</v>
       </c>
       <c r="T295" t="n">
-        <v>1.31145</v>
+        <v>1311.45</v>
       </c>
     </row>
     <row r="296">
@@ -24175,7 +24175,7 @@
         </is>
       </c>
       <c r="I297" t="n">
-        <v>1.396</v>
+        <v>1396</v>
       </c>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="n">
@@ -24216,7 +24216,7 @@
         <v>0.05</v>
       </c>
       <c r="T297" t="n">
-        <v>1.4658</v>
+        <v>1465.8</v>
       </c>
     </row>
     <row r="298">
@@ -24335,7 +24335,7 @@
         </is>
       </c>
       <c r="I299" t="n">
-        <v>1.197</v>
+        <v>1197</v>
       </c>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="n">
@@ -24376,7 +24376,7 @@
         <v>0.05</v>
       </c>
       <c r="T299" t="n">
-        <v>1.25685</v>
+        <v>1256.85</v>
       </c>
     </row>
     <row r="300">
@@ -24415,7 +24415,7 @@
         </is>
       </c>
       <c r="I300" t="n">
-        <v>1.107</v>
+        <v>1107</v>
       </c>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="n">
@@ -24456,7 +24456,7 @@
         <v>0.05</v>
       </c>
       <c r="T300" t="n">
-        <v>1.16235</v>
+        <v>1162.35</v>
       </c>
     </row>
     <row r="301">
@@ -24575,7 +24575,7 @@
         </is>
       </c>
       <c r="I302" t="n">
-        <v>1.167</v>
+        <v>1167</v>
       </c>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="n">
@@ -24616,7 +24616,7 @@
         <v>0.05</v>
       </c>
       <c r="T302" t="n">
-        <v>1.22535</v>
+        <v>1225.35</v>
       </c>
     </row>
     <row r="303">
@@ -24815,7 +24815,7 @@
         </is>
       </c>
       <c r="I305" t="n">
-        <v>1.006</v>
+        <v>1006</v>
       </c>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="n">
@@ -24856,7 +24856,7 @@
         <v>0.05</v>
       </c>
       <c r="T305" t="n">
-        <v>1.0563</v>
+        <v>1056.3</v>
       </c>
     </row>
     <row r="306">
@@ -24895,7 +24895,7 @@
         </is>
       </c>
       <c r="I306" t="n">
-        <v>1.263</v>
+        <v>1263</v>
       </c>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="n">
@@ -24936,7 +24936,7 @@
         <v>0.05</v>
       </c>
       <c r="T306" t="n">
-        <v>1.32615</v>
+        <v>1326.15</v>
       </c>
     </row>
     <row r="307">
@@ -25215,7 +25215,7 @@
         </is>
       </c>
       <c r="I310" t="n">
-        <v>1.607</v>
+        <v>1607</v>
       </c>
       <c r="J310" t="n">
         <v>1</v>
@@ -25256,7 +25256,7 @@
         <v>0.05</v>
       </c>
       <c r="T310" t="n">
-        <v>1.68735</v>
+        <v>1687.35</v>
       </c>
     </row>
     <row r="311">
@@ -25295,7 +25295,7 @@
         </is>
       </c>
       <c r="I311" t="n">
-        <v>1.599</v>
+        <v>1599</v>
       </c>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="n">
@@ -25336,7 +25336,7 @@
         <v>0.05</v>
       </c>
       <c r="T311" t="n">
-        <v>1.67895</v>
+        <v>1678.95</v>
       </c>
     </row>
     <row r="312">
@@ -25375,7 +25375,7 @@
         </is>
       </c>
       <c r="I312" t="n">
-        <v>1.457</v>
+        <v>1457</v>
       </c>
       <c r="J312" t="n">
         <v>1</v>
@@ -25416,7 +25416,7 @@
         <v>0.05</v>
       </c>
       <c r="T312" t="n">
-        <v>1.52985</v>
+        <v>1529.85</v>
       </c>
     </row>
     <row r="313">
@@ -25455,7 +25455,7 @@
         </is>
       </c>
       <c r="I313" t="n">
-        <v>1.173</v>
+        <v>1173</v>
       </c>
       <c r="J313" t="n">
         <v>1</v>
@@ -25496,7 +25496,7 @@
         <v>0.05</v>
       </c>
       <c r="T313" t="n">
-        <v>1.23165</v>
+        <v>1231.65</v>
       </c>
     </row>
     <row r="314">
@@ -25535,7 +25535,7 @@
         </is>
       </c>
       <c r="I314" t="n">
-        <v>1.494</v>
+        <v>1494</v>
       </c>
       <c r="J314" t="n">
         <v>1</v>
@@ -25576,7 +25576,7 @@
         <v>0.05</v>
       </c>
       <c r="T314" t="n">
-        <v>1.5687</v>
+        <v>1568.7</v>
       </c>
     </row>
     <row r="315">
@@ -25695,7 +25695,7 @@
         </is>
       </c>
       <c r="I316" t="n">
-        <v>1.664</v>
+        <v>1664</v>
       </c>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="n">
@@ -25736,7 +25736,7 @@
         <v>0.05</v>
       </c>
       <c r="T316" t="n">
-        <v>1.7472</v>
+        <v>1747.2</v>
       </c>
     </row>
     <row r="317">
@@ -25775,7 +25775,7 @@
         </is>
       </c>
       <c r="I317" t="n">
-        <v>1.085</v>
+        <v>1085</v>
       </c>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="n">
@@ -25816,7 +25816,7 @@
         <v>0.05</v>
       </c>
       <c r="T317" t="n">
-        <v>1.13925</v>
+        <v>1139.25</v>
       </c>
     </row>
     <row r="318">
@@ -25855,7 +25855,7 @@
         </is>
       </c>
       <c r="I318" t="n">
-        <v>1.576</v>
+        <v>1576</v>
       </c>
       <c r="J318" t="n">
         <v>1</v>
@@ -25896,7 +25896,7 @@
         <v>0.05</v>
       </c>
       <c r="T318" t="n">
-        <v>1.6548</v>
+        <v>1654.8</v>
       </c>
     </row>
     <row r="319">
@@ -26255,7 +26255,7 @@
         </is>
       </c>
       <c r="I323" t="n">
-        <v>1.405</v>
+        <v>1405</v>
       </c>
       <c r="J323" t="n">
         <v>1</v>
@@ -26296,7 +26296,7 @@
         <v>0.05</v>
       </c>
       <c r="T323" t="n">
-        <v>1.47525</v>
+        <v>1475.25</v>
       </c>
     </row>
     <row r="324">
@@ -26335,7 +26335,7 @@
         </is>
       </c>
       <c r="I324" t="n">
-        <v>1.101</v>
+        <v>1101</v>
       </c>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="n">
@@ -26376,7 +26376,7 @@
         <v>0.05</v>
       </c>
       <c r="T324" t="n">
-        <v>1.15605</v>
+        <v>1156.05</v>
       </c>
     </row>
     <row r="325">
@@ -26495,7 +26495,7 @@
         </is>
       </c>
       <c r="I326" t="n">
-        <v>1.162</v>
+        <v>1162</v>
       </c>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="n">
@@ -26536,7 +26536,7 @@
         <v>0.05</v>
       </c>
       <c r="T326" t="n">
-        <v>1.2201</v>
+        <v>1220.1</v>
       </c>
     </row>
     <row r="327">
@@ -26575,7 +26575,7 @@
         </is>
       </c>
       <c r="I327" t="n">
-        <v>1.022</v>
+        <v>1022</v>
       </c>
       <c r="J327" t="n">
         <v>1</v>
@@ -26616,7 +26616,7 @@
         <v>0.05</v>
       </c>
       <c r="T327" t="n">
-        <v>1.0731</v>
+        <v>1073.1</v>
       </c>
     </row>
     <row r="328">
@@ -26655,7 +26655,7 @@
         </is>
       </c>
       <c r="I328" t="n">
-        <v>1.623</v>
+        <v>1623</v>
       </c>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="n">
@@ -26696,7 +26696,7 @@
         <v>0.05</v>
       </c>
       <c r="T328" t="n">
-        <v>1.70415</v>
+        <v>1704.15</v>
       </c>
     </row>
     <row r="329">
@@ -26815,7 +26815,7 @@
         </is>
       </c>
       <c r="I330" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="n">
@@ -26856,7 +26856,7 @@
         <v>0.05</v>
       </c>
       <c r="T330" t="n">
-        <v>1.05</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="331">
@@ -26895,7 +26895,7 @@
         </is>
       </c>
       <c r="I331" t="n">
-        <v>1.022</v>
+        <v>1022</v>
       </c>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="n">
@@ -26936,7 +26936,7 @@
         <v>0.05</v>
       </c>
       <c r="T331" t="n">
-        <v>1.0731</v>
+        <v>1073.1</v>
       </c>
     </row>
     <row r="332">
@@ -26975,7 +26975,7 @@
         </is>
       </c>
       <c r="I332" t="n">
-        <v>1.143</v>
+        <v>1143</v>
       </c>
       <c r="J332" t="n">
         <v>1</v>
@@ -27016,7 +27016,7 @@
         <v>0.05</v>
       </c>
       <c r="T332" t="n">
-        <v>1.20015</v>
+        <v>1200.15</v>
       </c>
     </row>
     <row r="333">
@@ -27055,7 +27055,7 @@
         </is>
       </c>
       <c r="I333" t="n">
-        <v>1.254</v>
+        <v>1254</v>
       </c>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="n">
@@ -27096,7 +27096,7 @@
         <v>0.05</v>
       </c>
       <c r="T333" t="n">
-        <v>1.3167</v>
+        <v>1316.7</v>
       </c>
     </row>
     <row r="334">
@@ -27215,7 +27215,7 @@
         </is>
       </c>
       <c r="I335" t="n">
-        <v>1.173</v>
+        <v>1173</v>
       </c>
       <c r="J335" t="n">
         <v>1</v>
@@ -27256,7 +27256,7 @@
         <v>0.05</v>
       </c>
       <c r="T335" t="n">
-        <v>1.23165</v>
+        <v>1231.65</v>
       </c>
     </row>
     <row r="336">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="I338" t="n">
-        <v>1.325</v>
+        <v>1325</v>
       </c>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="n">
@@ -27496,7 +27496,7 @@
         <v>0.05</v>
       </c>
       <c r="T338" t="n">
-        <v>1.39125</v>
+        <v>1391.25</v>
       </c>
     </row>
     <row r="339">
@@ -27535,7 +27535,7 @@
         </is>
       </c>
       <c r="I339" t="n">
-        <v>1.083</v>
+        <v>1083</v>
       </c>
       <c r="J339" t="n">
         <v>1</v>
@@ -27576,7 +27576,7 @@
         <v>0.05</v>
       </c>
       <c r="T339" t="n">
-        <v>1.13715</v>
+        <v>1137.15</v>
       </c>
     </row>
     <row r="340">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="I340" t="n">
-        <v>1.567</v>
+        <v>1567</v>
       </c>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="n">
@@ -27656,7 +27656,7 @@
         <v>0.05</v>
       </c>
       <c r="T340" t="n">
-        <v>1.64535</v>
+        <v>1645.35</v>
       </c>
     </row>
     <row r="341">
@@ -27695,7 +27695,7 @@
         </is>
       </c>
       <c r="I341" t="n">
-        <v>1.129</v>
+        <v>1129</v>
       </c>
       <c r="J341" t="n">
         <v>1</v>
@@ -27736,7 +27736,7 @@
         <v>0.05</v>
       </c>
       <c r="T341" t="n">
-        <v>1.18545</v>
+        <v>1185.45</v>
       </c>
     </row>
     <row r="342">
@@ -27775,7 +27775,7 @@
         </is>
       </c>
       <c r="I342" t="n">
-        <v>1.317</v>
+        <v>1317</v>
       </c>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="n">
@@ -27816,7 +27816,7 @@
         <v>0.05</v>
       </c>
       <c r="T342" t="n">
-        <v>1.38285</v>
+        <v>1382.85</v>
       </c>
     </row>
     <row r="343">
@@ -28095,7 +28095,7 @@
         </is>
       </c>
       <c r="I346" t="n">
-        <v>1.43</v>
+        <v>1430</v>
       </c>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="n">
@@ -28136,7 +28136,7 @@
         <v>0.05</v>
       </c>
       <c r="T346" t="n">
-        <v>1.5015</v>
+        <v>1501.5</v>
       </c>
     </row>
     <row r="347">
@@ -28255,7 +28255,7 @@
         </is>
       </c>
       <c r="I348" t="n">
-        <v>1.593</v>
+        <v>1593</v>
       </c>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="n">
@@ -28296,7 +28296,7 @@
         <v>0.05</v>
       </c>
       <c r="T348" t="n">
-        <v>1.67265</v>
+        <v>1672.65</v>
       </c>
     </row>
     <row r="349">
@@ -28335,7 +28335,7 @@
         </is>
       </c>
       <c r="I349" t="n">
-        <v>1.269</v>
+        <v>1269</v>
       </c>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="n">
@@ -28376,7 +28376,7 @@
         <v>0.05</v>
       </c>
       <c r="T349" t="n">
-        <v>1.33245</v>
+        <v>1332.45</v>
       </c>
     </row>
     <row r="350">
@@ -28415,7 +28415,7 @@
         </is>
       </c>
       <c r="I350" t="n">
-        <v>1.357</v>
+        <v>1357</v>
       </c>
       <c r="J350" t="n">
         <v>1</v>
@@ -28456,7 +28456,7 @@
         <v>0.05</v>
       </c>
       <c r="T350" t="n">
-        <v>1.42485</v>
+        <v>1424.85</v>
       </c>
     </row>
     <row r="351">
@@ -28575,7 +28575,7 @@
         </is>
       </c>
       <c r="I352" t="n">
-        <v>1.214</v>
+        <v>1214</v>
       </c>
       <c r="J352" t="n">
         <v>1</v>
@@ -28616,7 +28616,7 @@
         <v>0.05</v>
       </c>
       <c r="T352" t="n">
-        <v>1.2747</v>
+        <v>1274.7</v>
       </c>
     </row>
     <row r="353">
@@ -28655,7 +28655,7 @@
         </is>
       </c>
       <c r="I353" t="n">
-        <v>1.291</v>
+        <v>1291</v>
       </c>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="n">
@@ -28696,7 +28696,7 @@
         <v>0.05</v>
       </c>
       <c r="T353" t="n">
-        <v>1.35555</v>
+        <v>1355.55</v>
       </c>
     </row>
     <row r="354">
@@ -28735,7 +28735,7 @@
         </is>
       </c>
       <c r="I354" t="n">
-        <v>1.314</v>
+        <v>1314</v>
       </c>
       <c r="J354" t="inlineStr"/>
       <c r="K354" t="n">
@@ -28776,7 +28776,7 @@
         <v>0.05</v>
       </c>
       <c r="T354" t="n">
-        <v>1.3797</v>
+        <v>1379.7</v>
       </c>
     </row>
     <row r="355">
@@ -28815,7 +28815,7 @@
         </is>
       </c>
       <c r="I355" t="n">
-        <v>1.507</v>
+        <v>1507</v>
       </c>
       <c r="J355" t="n">
         <v>1</v>
@@ -28856,7 +28856,7 @@
         <v>0.05</v>
       </c>
       <c r="T355" t="n">
-        <v>1.58235</v>
+        <v>1582.35</v>
       </c>
     </row>
     <row r="356">
@@ -28895,7 +28895,7 @@
         </is>
       </c>
       <c r="I356" t="n">
-        <v>1.33</v>
+        <v>1330</v>
       </c>
       <c r="J356" t="n">
         <v>1</v>
@@ -28936,7 +28936,7 @@
         <v>0.05</v>
       </c>
       <c r="T356" t="n">
-        <v>1.3965</v>
+        <v>1396.5</v>
       </c>
     </row>
     <row r="357">
@@ -29135,7 +29135,7 @@
         </is>
       </c>
       <c r="I359" t="n">
-        <v>1.25</v>
+        <v>1250</v>
       </c>
       <c r="J359" t="n">
         <v>1</v>
@@ -29176,7 +29176,7 @@
         <v>0.05</v>
       </c>
       <c r="T359" t="n">
-        <v>1.3125</v>
+        <v>1312.5</v>
       </c>
     </row>
     <row r="360">
@@ -29295,7 +29295,7 @@
         </is>
       </c>
       <c r="I361" t="n">
-        <v>1.13</v>
+        <v>1130</v>
       </c>
       <c r="J361" t="n">
         <v>1</v>
@@ -29336,7 +29336,7 @@
         <v>0.05</v>
       </c>
       <c r="T361" t="n">
-        <v>1.1865</v>
+        <v>1186.5</v>
       </c>
     </row>
     <row r="362">
@@ -29375,7 +29375,7 @@
         </is>
       </c>
       <c r="I362" t="n">
-        <v>1.321</v>
+        <v>1321</v>
       </c>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="n">
@@ -29416,7 +29416,7 @@
         <v>0.05</v>
       </c>
       <c r="T362" t="n">
-        <v>1.38705</v>
+        <v>1387.05</v>
       </c>
     </row>
     <row r="363">
@@ -29455,7 +29455,7 @@
         </is>
       </c>
       <c r="I363" t="n">
-        <v>1.034</v>
+        <v>1034</v>
       </c>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="n">
@@ -29496,7 +29496,7 @@
         <v>0.05</v>
       </c>
       <c r="T363" t="n">
-        <v>1.0857</v>
+        <v>1085.7</v>
       </c>
     </row>
     <row r="364">
@@ -29615,7 +29615,7 @@
         </is>
       </c>
       <c r="I365" t="n">
-        <v>1.553</v>
+        <v>1553</v>
       </c>
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="n">
@@ -29656,7 +29656,7 @@
         <v>0.05</v>
       </c>
       <c r="T365" t="n">
-        <v>1.63065</v>
+        <v>1630.65</v>
       </c>
     </row>
     <row r="366">
@@ -29695,7 +29695,7 @@
         </is>
       </c>
       <c r="I366" t="n">
-        <v>1.353</v>
+        <v>1353</v>
       </c>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="n">
@@ -29736,7 +29736,7 @@
         <v>0.05</v>
       </c>
       <c r="T366" t="n">
-        <v>1.42065</v>
+        <v>1420.65</v>
       </c>
     </row>
     <row r="367">
@@ -29775,7 +29775,7 @@
         </is>
       </c>
       <c r="I367" t="n">
-        <v>1.23</v>
+        <v>1230</v>
       </c>
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="n">
@@ -29816,7 +29816,7 @@
         <v>0.05</v>
       </c>
       <c r="T367" t="n">
-        <v>1.2915</v>
+        <v>1291.5</v>
       </c>
     </row>
     <row r="368">
@@ -29855,7 +29855,7 @@
         </is>
       </c>
       <c r="I368" t="n">
-        <v>1.108</v>
+        <v>1108</v>
       </c>
       <c r="J368" t="n">
         <v>1</v>
@@ -29885,7 +29885,7 @@
         <v>35006</v>
       </c>
       <c r="Q368" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R368" t="inlineStr">
         <is>
@@ -29896,7 +29896,7 @@
         <v>0.05</v>
       </c>
       <c r="T368" t="n">
-        <v>1.1634</v>
+        <v>1163.4</v>
       </c>
     </row>
     <row r="369">
@@ -29935,7 +29935,7 @@
         </is>
       </c>
       <c r="I369" t="n">
-        <v>1.101</v>
+        <v>1101</v>
       </c>
       <c r="J369" t="n">
         <v>1</v>
@@ -29976,7 +29976,7 @@
         <v>0.05</v>
       </c>
       <c r="T369" t="n">
-        <v>1.15605</v>
+        <v>1156.05</v>
       </c>
     </row>
     <row r="370">
@@ -30015,7 +30015,7 @@
         </is>
       </c>
       <c r="I370" t="n">
-        <v>1.431</v>
+        <v>1431</v>
       </c>
       <c r="J370" t="inlineStr"/>
       <c r="K370" t="n">
@@ -30056,7 +30056,7 @@
         <v>0.05</v>
       </c>
       <c r="T370" t="n">
-        <v>1.50255</v>
+        <v>1502.55</v>
       </c>
     </row>
     <row r="371">
@@ -30175,7 +30175,7 @@
         </is>
       </c>
       <c r="I372" t="n">
-        <v>1.023</v>
+        <v>1023</v>
       </c>
       <c r="J372" t="inlineStr"/>
       <c r="K372" t="n">
@@ -30216,7 +30216,7 @@
         <v>0.05</v>
       </c>
       <c r="T372" t="n">
-        <v>1.07415</v>
+        <v>1074.15</v>
       </c>
     </row>
     <row r="373">
@@ -30335,7 +30335,7 @@
         </is>
       </c>
       <c r="I374" t="n">
-        <v>1.665</v>
+        <v>1665</v>
       </c>
       <c r="J374" t="inlineStr"/>
       <c r="K374" t="n">
@@ -30376,7 +30376,7 @@
         <v>0.05</v>
       </c>
       <c r="T374" t="n">
-        <v>1.74825</v>
+        <v>1748.25</v>
       </c>
     </row>
     <row r="375">
@@ -30415,7 +30415,7 @@
         </is>
       </c>
       <c r="I375" t="n">
-        <v>1.136</v>
+        <v>1136</v>
       </c>
       <c r="J375" t="n">
         <v>1</v>
@@ -30456,7 +30456,7 @@
         <v>0.05</v>
       </c>
       <c r="T375" t="n">
-        <v>1.1928</v>
+        <v>1192.8</v>
       </c>
     </row>
     <row r="376">
@@ -30575,7 +30575,7 @@
         </is>
       </c>
       <c r="I377" t="n">
-        <v>1.518</v>
+        <v>1518</v>
       </c>
       <c r="J377" t="n">
         <v>1</v>
@@ -30616,7 +30616,7 @@
         <v>0.05</v>
       </c>
       <c r="T377" t="n">
-        <v>1.5939</v>
+        <v>1593.9</v>
       </c>
     </row>
     <row r="378">
@@ -30735,7 +30735,7 @@
         </is>
       </c>
       <c r="I379" t="n">
-        <v>1.43</v>
+        <v>1430</v>
       </c>
       <c r="J379" t="inlineStr"/>
       <c r="K379" t="n">
@@ -30776,7 +30776,7 @@
         <v>0.05</v>
       </c>
       <c r="T379" t="n">
-        <v>1.5015</v>
+        <v>1501.5</v>
       </c>
     </row>
     <row r="380">
@@ -30895,7 +30895,7 @@
         </is>
       </c>
       <c r="I381" t="n">
-        <v>1.292</v>
+        <v>1292</v>
       </c>
       <c r="J381" t="n">
         <v>1</v>
@@ -30936,7 +30936,7 @@
         <v>0.05</v>
       </c>
       <c r="T381" t="n">
-        <v>1.3566</v>
+        <v>1356.6</v>
       </c>
     </row>
     <row r="382">
@@ -30975,7 +30975,7 @@
         </is>
       </c>
       <c r="I382" t="n">
-        <v>1.086</v>
+        <v>1086</v>
       </c>
       <c r="J382" t="inlineStr"/>
       <c r="K382" t="n">
@@ -31016,7 +31016,7 @@
         <v>0.05</v>
       </c>
       <c r="T382" t="n">
-        <v>1.1403</v>
+        <v>1140.3</v>
       </c>
     </row>
     <row r="383">
@@ -31055,7 +31055,7 @@
         </is>
       </c>
       <c r="I383" t="n">
-        <v>1.162</v>
+        <v>1162</v>
       </c>
       <c r="J383" t="inlineStr"/>
       <c r="K383" t="n">
@@ -31096,7 +31096,7 @@
         <v>0.05</v>
       </c>
       <c r="T383" t="n">
-        <v>1.2201</v>
+        <v>1220.1</v>
       </c>
     </row>
     <row r="384">
@@ -31215,7 +31215,7 @@
         </is>
       </c>
       <c r="I385" t="n">
-        <v>1.057</v>
+        <v>1057</v>
       </c>
       <c r="J385" t="n">
         <v>1</v>
@@ -31256,7 +31256,7 @@
         <v>0.05</v>
       </c>
       <c r="T385" t="n">
-        <v>1.10985</v>
+        <v>1109.85</v>
       </c>
     </row>
     <row r="386">
@@ -31295,7 +31295,7 @@
         </is>
       </c>
       <c r="I386" t="n">
-        <v>1.51</v>
+        <v>1510</v>
       </c>
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="n">
@@ -31336,7 +31336,7 @@
         <v>0.05</v>
       </c>
       <c r="T386" t="n">
-        <v>1.5855</v>
+        <v>1585.5</v>
       </c>
     </row>
     <row r="387">
@@ -31375,7 +31375,7 @@
         </is>
       </c>
       <c r="I387" t="n">
-        <v>1.086</v>
+        <v>1086</v>
       </c>
       <c r="J387" t="n">
         <v>1</v>
@@ -31416,7 +31416,7 @@
         <v>0.05</v>
       </c>
       <c r="T387" t="n">
-        <v>1.1403</v>
+        <v>1140.3</v>
       </c>
     </row>
     <row r="388">
@@ -31455,7 +31455,7 @@
         </is>
       </c>
       <c r="I388" t="n">
-        <v>1.141</v>
+        <v>1141</v>
       </c>
       <c r="J388" t="inlineStr"/>
       <c r="K388" t="n">
@@ -31496,7 +31496,7 @@
         <v>0.05</v>
       </c>
       <c r="T388" t="n">
-        <v>1.19805</v>
+        <v>1198.05</v>
       </c>
     </row>
     <row r="389">
@@ -31535,7 +31535,7 @@
         </is>
       </c>
       <c r="I389" t="n">
-        <v>1.166</v>
+        <v>1166</v>
       </c>
       <c r="J389" t="n">
         <v>1</v>
@@ -31576,7 +31576,7 @@
         <v>0.05</v>
       </c>
       <c r="T389" t="n">
-        <v>1.2243</v>
+        <v>1224.3</v>
       </c>
     </row>
     <row r="390">
@@ -31615,7 +31615,7 @@
         </is>
       </c>
       <c r="I390" t="n">
-        <v>1.155</v>
+        <v>1155</v>
       </c>
       <c r="J390" t="inlineStr"/>
       <c r="K390" t="n">
@@ -31656,7 +31656,7 @@
         <v>0.05</v>
       </c>
       <c r="T390" t="n">
-        <v>1.21275</v>
+        <v>1212.75</v>
       </c>
     </row>
     <row r="391">
@@ -31695,7 +31695,7 @@
         </is>
       </c>
       <c r="I391" t="n">
-        <v>1.429</v>
+        <v>1429</v>
       </c>
       <c r="J391" t="inlineStr"/>
       <c r="K391" t="n">
@@ -31736,7 +31736,7 @@
         <v>0.05</v>
       </c>
       <c r="T391" t="n">
-        <v>1.50045</v>
+        <v>1500.45</v>
       </c>
     </row>
     <row r="392">
@@ -31775,7 +31775,7 @@
         </is>
       </c>
       <c r="I392" t="n">
-        <v>1.238</v>
+        <v>1238</v>
       </c>
       <c r="J392" t="inlineStr"/>
       <c r="K392" t="n">
@@ -31816,7 +31816,7 @@
         <v>0.05</v>
       </c>
       <c r="T392" t="n">
-        <v>1.2999</v>
+        <v>1299.9</v>
       </c>
     </row>
     <row r="393">
@@ -32015,7 +32015,7 @@
         </is>
       </c>
       <c r="I395" t="n">
-        <v>1.034</v>
+        <v>1034</v>
       </c>
       <c r="J395" t="inlineStr"/>
       <c r="K395" t="n">
@@ -32056,7 +32056,7 @@
         <v>0.05</v>
       </c>
       <c r="T395" t="n">
-        <v>1.0857</v>
+        <v>1085.7</v>
       </c>
     </row>
     <row r="396">
@@ -32175,7 +32175,7 @@
         </is>
       </c>
       <c r="I397" t="n">
-        <v>1.377</v>
+        <v>1377</v>
       </c>
       <c r="J397" t="inlineStr"/>
       <c r="K397" t="n">
@@ -32216,7 +32216,7 @@
         <v>0.05</v>
       </c>
       <c r="T397" t="n">
-        <v>1.44585</v>
+        <v>1445.85</v>
       </c>
     </row>
     <row r="398">
@@ -32255,7 +32255,7 @@
         </is>
       </c>
       <c r="I398" t="n">
-        <v>1.253</v>
+        <v>1253</v>
       </c>
       <c r="J398" t="inlineStr"/>
       <c r="K398" t="n">
@@ -32296,7 +32296,7 @@
         <v>0.05</v>
       </c>
       <c r="T398" t="n">
-        <v>1.31565</v>
+        <v>1315.65</v>
       </c>
     </row>
     <row r="399">
@@ -32335,7 +32335,7 @@
         </is>
       </c>
       <c r="I399" t="n">
-        <v>1.591</v>
+        <v>1591</v>
       </c>
       <c r="J399" t="n">
         <v>1</v>
@@ -32376,7 +32376,7 @@
         <v>0.05</v>
       </c>
       <c r="T399" t="n">
-        <v>1.67055</v>
+        <v>1670.55</v>
       </c>
     </row>
     <row r="400">
@@ -32495,7 +32495,7 @@
         </is>
       </c>
       <c r="I401" t="n">
-        <v>1.454</v>
+        <v>1454</v>
       </c>
       <c r="J401" t="inlineStr"/>
       <c r="K401" t="n">
@@ -32536,7 +32536,7 @@
         <v>0.05</v>
       </c>
       <c r="T401" t="n">
-        <v>1.5267</v>
+        <v>1526.7</v>
       </c>
     </row>
     <row r="402">
@@ -32575,7 +32575,7 @@
         </is>
       </c>
       <c r="I402" t="n">
-        <v>1.109</v>
+        <v>1109</v>
       </c>
       <c r="J402" t="n">
         <v>1</v>
@@ -32616,7 +32616,7 @@
         <v>0.05</v>
       </c>
       <c r="T402" t="n">
-        <v>1.16445</v>
+        <v>1164.45</v>
       </c>
     </row>
     <row r="403">
@@ -32655,7 +32655,7 @@
         </is>
       </c>
       <c r="I403" t="n">
-        <v>1.12</v>
+        <v>1120</v>
       </c>
       <c r="J403" t="inlineStr"/>
       <c r="K403" t="n">
@@ -32696,7 +32696,7 @@
         <v>0.05</v>
       </c>
       <c r="T403" t="n">
-        <v>1.176</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="404">
@@ -32735,7 +32735,7 @@
         </is>
       </c>
       <c r="I404" t="n">
-        <v>1.039</v>
+        <v>1039</v>
       </c>
       <c r="J404" t="inlineStr"/>
       <c r="K404" t="n">
@@ -32776,7 +32776,7 @@
         <v>0.05</v>
       </c>
       <c r="T404" t="n">
-        <v>1.09095</v>
+        <v>1090.95</v>
       </c>
     </row>
     <row r="405">
@@ -32815,7 +32815,7 @@
         </is>
       </c>
       <c r="I405" t="n">
-        <v>1.529</v>
+        <v>1529</v>
       </c>
       <c r="J405" t="n">
         <v>1</v>
@@ -32856,7 +32856,7 @@
         <v>0.05</v>
       </c>
       <c r="T405" t="n">
-        <v>1.60545</v>
+        <v>1605.45</v>
       </c>
     </row>
     <row r="406">
@@ -32895,7 +32895,7 @@
         </is>
       </c>
       <c r="I406" t="n">
-        <v>1.564</v>
+        <v>1564</v>
       </c>
       <c r="J406" t="n">
         <v>1</v>
@@ -32936,7 +32936,7 @@
         <v>0.05</v>
       </c>
       <c r="T406" t="n">
-        <v>1.6422</v>
+        <v>1642.2</v>
       </c>
     </row>
     <row r="407">
@@ -32975,7 +32975,7 @@
         </is>
       </c>
       <c r="I407" t="n">
-        <v>1.573</v>
+        <v>1573</v>
       </c>
       <c r="J407" t="inlineStr"/>
       <c r="K407" t="n">
@@ -33016,7 +33016,7 @@
         <v>0.05</v>
       </c>
       <c r="T407" t="n">
-        <v>1.65165</v>
+        <v>1651.65</v>
       </c>
     </row>
     <row r="408">
@@ -33215,7 +33215,7 @@
         </is>
       </c>
       <c r="I410" t="n">
-        <v>1.216</v>
+        <v>1216</v>
       </c>
       <c r="J410" t="inlineStr"/>
       <c r="K410" t="n">
@@ -33256,7 +33256,7 @@
         <v>0.05</v>
       </c>
       <c r="T410" t="n">
-        <v>1.2768</v>
+        <v>1276.8</v>
       </c>
     </row>
     <row r="411">
@@ -33295,7 +33295,7 @@
         </is>
       </c>
       <c r="I411" t="n">
-        <v>1.444</v>
+        <v>1444</v>
       </c>
       <c r="J411" t="inlineStr"/>
       <c r="K411" t="n">
@@ -33336,7 +33336,7 @@
         <v>0.05</v>
       </c>
       <c r="T411" t="n">
-        <v>1.5162</v>
+        <v>1516.2</v>
       </c>
     </row>
     <row r="412">
@@ -33375,7 +33375,7 @@
         </is>
       </c>
       <c r="I412" t="n">
-        <v>1.345</v>
+        <v>1345</v>
       </c>
       <c r="J412" t="inlineStr"/>
       <c r="K412" t="n">
@@ -33416,7 +33416,7 @@
         <v>0.05</v>
       </c>
       <c r="T412" t="n">
-        <v>1.41225</v>
+        <v>1412.25</v>
       </c>
     </row>
     <row r="413">
@@ -33455,7 +33455,7 @@
         </is>
       </c>
       <c r="I413" t="n">
-        <v>1.389</v>
+        <v>1389</v>
       </c>
       <c r="J413" t="inlineStr"/>
       <c r="K413" t="n">
@@ -33496,7 +33496,7 @@
         <v>0.05</v>
       </c>
       <c r="T413" t="n">
-        <v>1.45845</v>
+        <v>1458.45</v>
       </c>
     </row>
     <row r="414">
@@ -33535,7 +33535,7 @@
         </is>
       </c>
       <c r="I414" t="n">
-        <v>1.348</v>
+        <v>1348</v>
       </c>
       <c r="J414" t="n">
         <v>1</v>
@@ -33576,7 +33576,7 @@
         <v>0.05</v>
       </c>
       <c r="T414" t="n">
-        <v>1.4154</v>
+        <v>1415.4</v>
       </c>
     </row>
     <row r="415">
@@ -33695,7 +33695,7 @@
         </is>
       </c>
       <c r="I416" t="n">
-        <v>1.331</v>
+        <v>1331</v>
       </c>
       <c r="J416" t="inlineStr"/>
       <c r="K416" t="n">
@@ -33736,7 +33736,7 @@
         <v>0.05</v>
       </c>
       <c r="T416" t="n">
-        <v>1.39755</v>
+        <v>1397.55</v>
       </c>
     </row>
     <row r="417">
@@ -33855,7 +33855,7 @@
         </is>
       </c>
       <c r="I418" t="n">
-        <v>1.197</v>
+        <v>1197</v>
       </c>
       <c r="J418" t="inlineStr"/>
       <c r="K418" t="n">
@@ -33896,7 +33896,7 @@
         <v>0.05</v>
       </c>
       <c r="T418" t="n">
-        <v>1.25685</v>
+        <v>1256.85</v>
       </c>
     </row>
     <row r="419">
@@ -34015,7 +34015,7 @@
         </is>
       </c>
       <c r="I420" t="n">
-        <v>1.429</v>
+        <v>1429</v>
       </c>
       <c r="J420" t="n">
         <v>1</v>
@@ -34056,7 +34056,7 @@
         <v>0.05</v>
       </c>
       <c r="T420" t="n">
-        <v>1.50045</v>
+        <v>1500.45</v>
       </c>
     </row>
     <row r="421">
@@ -34095,7 +34095,7 @@
         </is>
       </c>
       <c r="I421" t="n">
-        <v>1.062</v>
+        <v>1062</v>
       </c>
       <c r="J421" t="n">
         <v>1</v>
@@ -34136,7 +34136,7 @@
         <v>0.05</v>
       </c>
       <c r="T421" t="n">
-        <v>1.1151</v>
+        <v>1115.1</v>
       </c>
     </row>
     <row r="422">
@@ -34175,7 +34175,7 @@
         </is>
       </c>
       <c r="I422" t="n">
-        <v>1.271</v>
+        <v>1271</v>
       </c>
       <c r="J422" t="n">
         <v>1</v>
@@ -34216,7 +34216,7 @@
         <v>0.05</v>
       </c>
       <c r="T422" t="n">
-        <v>1.33455</v>
+        <v>1334.55</v>
       </c>
     </row>
     <row r="423">
@@ -34255,7 +34255,7 @@
         </is>
       </c>
       <c r="I423" t="n">
-        <v>1.135</v>
+        <v>1135</v>
       </c>
       <c r="J423" t="n">
         <v>1</v>
@@ -34296,7 +34296,7 @@
         <v>0.05</v>
       </c>
       <c r="T423" t="n">
-        <v>1.19175</v>
+        <v>1191.75</v>
       </c>
     </row>
     <row r="424">
@@ -34415,7 +34415,7 @@
         </is>
       </c>
       <c r="I425" t="n">
-        <v>1.245</v>
+        <v>1245</v>
       </c>
       <c r="J425" t="n">
         <v>1</v>
@@ -34456,7 +34456,7 @@
         <v>0.05</v>
       </c>
       <c r="T425" t="n">
-        <v>1.30725</v>
+        <v>1307.25</v>
       </c>
     </row>
     <row r="426">
@@ -34495,7 +34495,7 @@
         </is>
       </c>
       <c r="I426" t="n">
-        <v>1.37</v>
+        <v>1370</v>
       </c>
       <c r="J426" t="n">
         <v>1</v>
@@ -34536,7 +34536,7 @@
         <v>0.05</v>
       </c>
       <c r="T426" t="n">
-        <v>1.4385</v>
+        <v>1438.5</v>
       </c>
     </row>
     <row r="427">
@@ -34575,7 +34575,7 @@
         </is>
       </c>
       <c r="I427" t="n">
-        <v>1.405</v>
+        <v>1405</v>
       </c>
       <c r="J427" t="n">
         <v>1</v>
@@ -34616,7 +34616,7 @@
         <v>0.05</v>
       </c>
       <c r="T427" t="n">
-        <v>1.47525</v>
+        <v>1475.25</v>
       </c>
     </row>
     <row r="428">
@@ -34655,7 +34655,7 @@
         </is>
       </c>
       <c r="I428" t="n">
-        <v>1.636</v>
+        <v>1636</v>
       </c>
       <c r="J428" t="n">
         <v>1</v>
@@ -34696,7 +34696,7 @@
         <v>0.05</v>
       </c>
       <c r="T428" t="n">
-        <v>1.7178</v>
+        <v>1717.8</v>
       </c>
     </row>
     <row r="429">
@@ -34895,7 +34895,7 @@
         </is>
       </c>
       <c r="I431" t="n">
-        <v>1.516</v>
+        <v>1516</v>
       </c>
       <c r="J431" t="n">
         <v>1</v>
@@ -34936,7 +34936,7 @@
         <v>0.05</v>
       </c>
       <c r="T431" t="n">
-        <v>1.5918</v>
+        <v>1591.8</v>
       </c>
     </row>
     <row r="432">
@@ -34975,7 +34975,7 @@
         </is>
       </c>
       <c r="I432" t="n">
-        <v>1.427</v>
+        <v>1427</v>
       </c>
       <c r="J432" t="inlineStr"/>
       <c r="K432" t="n">
@@ -35016,7 +35016,7 @@
         <v>0.05</v>
       </c>
       <c r="T432" t="n">
-        <v>1.49835</v>
+        <v>1498.35</v>
       </c>
     </row>
     <row r="433">
@@ -35135,7 +35135,7 @@
         </is>
       </c>
       <c r="I434" t="n">
-        <v>1.662</v>
+        <v>1662</v>
       </c>
       <c r="J434" t="inlineStr"/>
       <c r="K434" t="n">
@@ -35176,7 +35176,7 @@
         <v>0.05</v>
       </c>
       <c r="T434" t="n">
-        <v>1.7451</v>
+        <v>1745.1</v>
       </c>
     </row>
     <row r="435">
@@ -35215,7 +35215,7 @@
         </is>
       </c>
       <c r="I435" t="n">
-        <v>1.632</v>
+        <v>1632</v>
       </c>
       <c r="J435" t="inlineStr"/>
       <c r="K435" t="n">
@@ -35256,7 +35256,7 @@
         <v>0.05</v>
       </c>
       <c r="T435" t="n">
-        <v>1.7136</v>
+        <v>1713.6</v>
       </c>
     </row>
     <row r="436">
@@ -35295,7 +35295,7 @@
         </is>
       </c>
       <c r="I436" t="n">
-        <v>1.008</v>
+        <v>1008</v>
       </c>
       <c r="J436" t="inlineStr"/>
       <c r="K436" t="n">
@@ -35336,7 +35336,7 @@
         <v>0.05</v>
       </c>
       <c r="T436" t="n">
-        <v>1.0584</v>
+        <v>1058.4</v>
       </c>
     </row>
     <row r="437">
@@ -35535,7 +35535,7 @@
         </is>
       </c>
       <c r="I439" t="n">
-        <v>1.493</v>
+        <v>1493</v>
       </c>
       <c r="J439" t="n">
         <v>1</v>
@@ -35576,7 +35576,7 @@
         <v>0.05</v>
       </c>
       <c r="T439" t="n">
-        <v>1.56765</v>
+        <v>1567.65</v>
       </c>
     </row>
     <row r="440">
@@ -35615,7 +35615,7 @@
         </is>
       </c>
       <c r="I440" t="n">
-        <v>1.241</v>
+        <v>1241</v>
       </c>
       <c r="J440" t="inlineStr"/>
       <c r="K440" t="n">
@@ -35656,7 +35656,7 @@
         <v>0.05</v>
       </c>
       <c r="T440" t="n">
-        <v>1.30305</v>
+        <v>1303.05</v>
       </c>
     </row>
     <row r="441">
@@ -35775,7 +35775,7 @@
         </is>
       </c>
       <c r="I442" t="n">
-        <v>1.134</v>
+        <v>1134</v>
       </c>
       <c r="J442" t="inlineStr"/>
       <c r="K442" t="n">
@@ -35816,7 +35816,7 @@
         <v>0.05</v>
       </c>
       <c r="T442" t="n">
-        <v>1.1907</v>
+        <v>1190.7</v>
       </c>
     </row>
     <row r="443">
@@ -35935,7 +35935,7 @@
         </is>
       </c>
       <c r="I444" t="n">
-        <v>1.306</v>
+        <v>1306</v>
       </c>
       <c r="J444" t="n">
         <v>1</v>
@@ -35976,7 +35976,7 @@
         <v>0.05</v>
       </c>
       <c r="T444" t="n">
-        <v>1.3713</v>
+        <v>1371.3</v>
       </c>
     </row>
     <row r="445">
@@ -36415,7 +36415,7 @@
         </is>
       </c>
       <c r="I450" t="n">
-        <v>1.27</v>
+        <v>1270</v>
       </c>
       <c r="J450" t="inlineStr"/>
       <c r="K450" t="n">
@@ -36456,7 +36456,7 @@
         <v>0.05</v>
       </c>
       <c r="T450" t="n">
-        <v>1.3335</v>
+        <v>1333.5</v>
       </c>
     </row>
     <row r="451">
@@ -36575,7 +36575,7 @@
         </is>
       </c>
       <c r="I452" t="n">
-        <v>1.415</v>
+        <v>1415</v>
       </c>
       <c r="J452" t="inlineStr"/>
       <c r="K452" t="n">
@@ -36616,7 +36616,7 @@
         <v>0.05</v>
       </c>
       <c r="T452" t="n">
-        <v>1.48575</v>
+        <v>1485.75</v>
       </c>
     </row>
     <row r="453">
@@ -36655,7 +36655,7 @@
         </is>
       </c>
       <c r="I453" t="n">
-        <v>1.393</v>
+        <v>1393</v>
       </c>
       <c r="J453" t="inlineStr"/>
       <c r="K453" t="n">
@@ -36696,7 +36696,7 @@
         <v>0.05</v>
       </c>
       <c r="T453" t="n">
-        <v>1.46265</v>
+        <v>1462.65</v>
       </c>
     </row>
     <row r="454">
@@ -36735,7 +36735,7 @@
         </is>
       </c>
       <c r="I454" t="n">
-        <v>1.139</v>
+        <v>1139</v>
       </c>
       <c r="J454" t="inlineStr"/>
       <c r="K454" t="n">
@@ -36776,7 +36776,7 @@
         <v>0.05</v>
       </c>
       <c r="T454" t="n">
-        <v>1.19595</v>
+        <v>1195.95</v>
       </c>
     </row>
     <row r="455">
@@ -36815,7 +36815,7 @@
         </is>
       </c>
       <c r="I455" t="n">
-        <v>1.233</v>
+        <v>1233</v>
       </c>
       <c r="J455" t="inlineStr"/>
       <c r="K455" t="n">
@@ -36856,7 +36856,7 @@
         <v>0.05</v>
       </c>
       <c r="T455" t="n">
-        <v>1.29465</v>
+        <v>1294.65</v>
       </c>
     </row>
     <row r="456">
@@ -36895,7 +36895,7 @@
         </is>
       </c>
       <c r="I456" t="n">
-        <v>1.428</v>
+        <v>1428</v>
       </c>
       <c r="J456" t="inlineStr"/>
       <c r="K456" t="n">
@@ -36936,7 +36936,7 @@
         <v>0.05</v>
       </c>
       <c r="T456" t="n">
-        <v>1.4994</v>
+        <v>1499.4</v>
       </c>
     </row>
     <row r="457">
@@ -36975,7 +36975,7 @@
         </is>
       </c>
       <c r="I457" t="n">
-        <v>1.129</v>
+        <v>1129</v>
       </c>
       <c r="J457" t="n">
         <v>1</v>
@@ -37016,7 +37016,7 @@
         <v>0.05</v>
       </c>
       <c r="T457" t="n">
-        <v>1.18545</v>
+        <v>1185.45</v>
       </c>
     </row>
     <row r="458">
@@ -37055,7 +37055,7 @@
         </is>
       </c>
       <c r="I458" t="n">
-        <v>1.13</v>
+        <v>1130</v>
       </c>
       <c r="J458" t="n">
         <v>1</v>
@@ -37096,7 +37096,7 @@
         <v>0.05</v>
       </c>
       <c r="T458" t="n">
-        <v>1.1865</v>
+        <v>1186.5</v>
       </c>
     </row>
     <row r="459">
@@ -37135,7 +37135,7 @@
         </is>
       </c>
       <c r="I459" t="n">
-        <v>1.016</v>
+        <v>1016</v>
       </c>
       <c r="J459" t="inlineStr"/>
       <c r="K459" t="n">
@@ -37176,7 +37176,7 @@
         <v>0.05</v>
       </c>
       <c r="T459" t="n">
-        <v>1.0668</v>
+        <v>1066.8</v>
       </c>
     </row>
     <row r="460">
@@ -37215,7 +37215,7 @@
         </is>
       </c>
       <c r="I460" t="n">
-        <v>1.079</v>
+        <v>1079</v>
       </c>
       <c r="J460" t="inlineStr"/>
       <c r="K460" t="n">
@@ -37256,7 +37256,7 @@
         <v>0.05</v>
       </c>
       <c r="T460" t="n">
-        <v>1.13295</v>
+        <v>1132.95</v>
       </c>
     </row>
     <row r="461">
@@ -37295,7 +37295,7 @@
         </is>
       </c>
       <c r="I461" t="n">
-        <v>1.619</v>
+        <v>1619</v>
       </c>
       <c r="J461" t="inlineStr"/>
       <c r="K461" t="n">
@@ -37336,7 +37336,7 @@
         <v>0.05</v>
       </c>
       <c r="T461" t="n">
-        <v>1.69995</v>
+        <v>1699.95</v>
       </c>
     </row>
     <row r="462">
@@ -37375,7 +37375,7 @@
         </is>
       </c>
       <c r="I462" t="n">
-        <v>1.507</v>
+        <v>1507</v>
       </c>
       <c r="J462" t="inlineStr"/>
       <c r="K462" t="n">
@@ -37416,7 +37416,7 @@
         <v>0.05</v>
       </c>
       <c r="T462" t="n">
-        <v>1.58235</v>
+        <v>1582.35</v>
       </c>
     </row>
     <row r="463">
@@ -37535,7 +37535,7 @@
         </is>
       </c>
       <c r="I464" t="n">
-        <v>1.028</v>
+        <v>1028</v>
       </c>
       <c r="J464" t="inlineStr"/>
       <c r="K464" t="n">
@@ -37565,7 +37565,7 @@
         <v>28068</v>
       </c>
       <c r="Q464" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R464" t="inlineStr">
         <is>
@@ -37576,7 +37576,7 @@
         <v>0.05</v>
       </c>
       <c r="T464" t="n">
-        <v>1.0794</v>
+        <v>1079.4</v>
       </c>
     </row>
     <row r="465">
@@ -37615,7 +37615,7 @@
         </is>
       </c>
       <c r="I465" t="n">
-        <v>1.275</v>
+        <v>1275</v>
       </c>
       <c r="J465" t="inlineStr"/>
       <c r="K465" t="n">
@@ -37656,7 +37656,7 @@
         <v>0.05</v>
       </c>
       <c r="T465" t="n">
-        <v>1.33875</v>
+        <v>1338.75</v>
       </c>
     </row>
     <row r="466">
@@ -37695,7 +37695,7 @@
         </is>
       </c>
       <c r="I466" t="n">
-        <v>1.222</v>
+        <v>1222</v>
       </c>
       <c r="J466" t="n">
         <v>1</v>
@@ -37736,7 +37736,7 @@
         <v>0.05</v>
       </c>
       <c r="T466" t="n">
-        <v>1.2831</v>
+        <v>1283.1</v>
       </c>
     </row>
     <row r="467">
@@ -37775,7 +37775,7 @@
         </is>
       </c>
       <c r="I467" t="n">
-        <v>1.117</v>
+        <v>1117</v>
       </c>
       <c r="J467" t="inlineStr"/>
       <c r="K467" t="n">
@@ -37816,7 +37816,7 @@
         <v>0.05</v>
       </c>
       <c r="T467" t="n">
-        <v>1.17285</v>
+        <v>1172.85</v>
       </c>
     </row>
     <row r="468">
@@ -37855,7 +37855,7 @@
         </is>
       </c>
       <c r="I468" t="n">
-        <v>1.237</v>
+        <v>1237</v>
       </c>
       <c r="J468" t="inlineStr"/>
       <c r="K468" t="n">
@@ -37896,7 +37896,7 @@
         <v>0.05</v>
       </c>
       <c r="T468" t="n">
-        <v>1.29885</v>
+        <v>1298.85</v>
       </c>
     </row>
     <row r="469">
@@ -38095,7 +38095,7 @@
         </is>
       </c>
       <c r="I471" t="n">
-        <v>1.273</v>
+        <v>1273</v>
       </c>
       <c r="J471" t="inlineStr"/>
       <c r="K471" t="n">
@@ -38136,7 +38136,7 @@
         <v>0.05</v>
       </c>
       <c r="T471" t="n">
-        <v>1.33665</v>
+        <v>1336.65</v>
       </c>
     </row>
     <row r="472">
@@ -38175,7 +38175,7 @@
         </is>
       </c>
       <c r="I472" t="n">
-        <v>1.246</v>
+        <v>1246</v>
       </c>
       <c r="J472" t="n">
         <v>1</v>
@@ -38216,7 +38216,7 @@
         <v>0.05</v>
       </c>
       <c r="T472" t="n">
-        <v>1.3083</v>
+        <v>1308.3</v>
       </c>
     </row>
     <row r="473">
@@ -38415,7 +38415,7 @@
         </is>
       </c>
       <c r="I475" t="n">
-        <v>1.259</v>
+        <v>1259</v>
       </c>
       <c r="J475" t="inlineStr"/>
       <c r="K475" t="n">
@@ -38456,7 +38456,7 @@
         <v>0.05</v>
       </c>
       <c r="T475" t="n">
-        <v>1.32195</v>
+        <v>1321.95</v>
       </c>
     </row>
     <row r="476">
@@ -38495,7 +38495,7 @@
         </is>
       </c>
       <c r="I476" t="n">
-        <v>1.33</v>
+        <v>1330</v>
       </c>
       <c r="J476" t="n">
         <v>1</v>
@@ -38536,7 +38536,7 @@
         <v>0.05</v>
       </c>
       <c r="T476" t="n">
-        <v>1.3965</v>
+        <v>1396.5</v>
       </c>
     </row>
     <row r="477">
@@ -38575,7 +38575,7 @@
         </is>
       </c>
       <c r="I477" t="n">
-        <v>1.221</v>
+        <v>1221</v>
       </c>
       <c r="J477" t="inlineStr"/>
       <c r="K477" t="n">
@@ -38616,7 +38616,7 @@
         <v>0.05</v>
       </c>
       <c r="T477" t="n">
-        <v>1.28205</v>
+        <v>1282.05</v>
       </c>
     </row>
     <row r="478">
@@ -38655,7 +38655,7 @@
         </is>
       </c>
       <c r="I478" t="n">
-        <v>1.673</v>
+        <v>1673</v>
       </c>
       <c r="J478" t="n">
         <v>1</v>
@@ -38696,7 +38696,7 @@
         <v>0.05</v>
       </c>
       <c r="T478" t="n">
-        <v>1.75665</v>
+        <v>1756.65</v>
       </c>
     </row>
     <row r="479">
@@ -38815,7 +38815,7 @@
         </is>
       </c>
       <c r="I480" t="n">
-        <v>1.017</v>
+        <v>1017</v>
       </c>
       <c r="J480" t="inlineStr"/>
       <c r="K480" t="n">
@@ -38856,7 +38856,7 @@
         <v>0.05</v>
       </c>
       <c r="T480" t="n">
-        <v>1.06785</v>
+        <v>1067.85</v>
       </c>
     </row>
     <row r="481">
@@ -38895,7 +38895,7 @@
         </is>
       </c>
       <c r="I481" t="n">
-        <v>1.172</v>
+        <v>1172</v>
       </c>
       <c r="J481" t="n">
         <v>1</v>
@@ -38936,7 +38936,7 @@
         <v>0.05</v>
       </c>
       <c r="T481" t="n">
-        <v>1.2306</v>
+        <v>1230.6</v>
       </c>
     </row>
     <row r="482">
@@ -38975,7 +38975,7 @@
         </is>
       </c>
       <c r="I482" t="n">
-        <v>1.433</v>
+        <v>1433</v>
       </c>
       <c r="J482" t="inlineStr"/>
       <c r="K482" t="n">
@@ -39016,7 +39016,7 @@
         <v>0.05</v>
       </c>
       <c r="T482" t="n">
-        <v>1.50465</v>
+        <v>1504.65</v>
       </c>
     </row>
     <row r="483">
@@ -39055,7 +39055,7 @@
         </is>
       </c>
       <c r="I483" t="n">
-        <v>1.142</v>
+        <v>1142</v>
       </c>
       <c r="J483" t="n">
         <v>1</v>
@@ -39096,7 +39096,7 @@
         <v>0.05</v>
       </c>
       <c r="T483" t="n">
-        <v>1.1991</v>
+        <v>1199.1</v>
       </c>
     </row>
     <row r="484">
@@ -39135,7 +39135,7 @@
         </is>
       </c>
       <c r="I484" t="n">
-        <v>1.378</v>
+        <v>1378</v>
       </c>
       <c r="J484" t="inlineStr"/>
       <c r="K484" t="n">
@@ -39176,7 +39176,7 @@
         <v>0.05</v>
       </c>
       <c r="T484" t="n">
-        <v>1.4469</v>
+        <v>1446.9</v>
       </c>
     </row>
     <row r="485">
@@ -39215,7 +39215,7 @@
         </is>
       </c>
       <c r="I485" t="n">
-        <v>1.457</v>
+        <v>1457</v>
       </c>
       <c r="J485" t="n">
         <v>1</v>
@@ -39256,7 +39256,7 @@
         <v>0.05</v>
       </c>
       <c r="T485" t="n">
-        <v>1.52985</v>
+        <v>1529.85</v>
       </c>
     </row>
     <row r="486">
@@ -39295,7 +39295,7 @@
         </is>
       </c>
       <c r="I486" t="n">
-        <v>1.001</v>
+        <v>1001</v>
       </c>
       <c r="J486" t="n">
         <v>1</v>
@@ -39336,7 +39336,7 @@
         <v>0.05</v>
       </c>
       <c r="T486" t="n">
-        <v>1.05105</v>
+        <v>1051.05</v>
       </c>
     </row>
     <row r="487">
@@ -39375,7 +39375,7 @@
         </is>
       </c>
       <c r="I487" t="n">
-        <v>1.538</v>
+        <v>1538</v>
       </c>
       <c r="J487" t="inlineStr"/>
       <c r="K487" t="n">
@@ -39416,7 +39416,7 @@
         <v>0.05</v>
       </c>
       <c r="T487" t="n">
-        <v>1.6149</v>
+        <v>1614.9</v>
       </c>
     </row>
     <row r="488">
@@ -39455,7 +39455,7 @@
         </is>
       </c>
       <c r="I488" t="n">
-        <v>1.315</v>
+        <v>1315</v>
       </c>
       <c r="J488" t="inlineStr"/>
       <c r="K488" t="n">
@@ -39496,7 +39496,7 @@
         <v>0.05</v>
       </c>
       <c r="T488" t="n">
-        <v>1.38075</v>
+        <v>1380.75</v>
       </c>
     </row>
     <row r="489">
@@ -39695,7 +39695,7 @@
         </is>
       </c>
       <c r="I491" t="n">
-        <v>1.217</v>
+        <v>1217</v>
       </c>
       <c r="J491" t="inlineStr"/>
       <c r="K491" t="n">
@@ -39736,7 +39736,7 @@
         <v>0.05</v>
       </c>
       <c r="T491" t="n">
-        <v>1.27785</v>
+        <v>1277.85</v>
       </c>
     </row>
   </sheetData>
